--- a/input/images/In-Vitro At-Home Test V2 FHIR Mapping.xlsx
+++ b/input/images/In-Vitro At-Home Test V2 FHIR Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\HL7\FHIR\home-lab-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F81564-C42F-404A-849A-A6B4C5CD7927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F8EBBF-45DC-470F-BD6E-88C1E46E6A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1956,8 +1956,8 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G197" sqref="G197"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/input/images/In-Vitro At-Home Test V2 FHIR Mapping.xlsx
+++ b/input/images/In-Vitro At-Home Test V2 FHIR Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\HL7\FHIR\home-lab-report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\HL7\FHIR\home-lab-report\input\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F8EBBF-45DC-470F-BD6E-88C1E46E6A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363CBA4F-3330-4C89-941B-C3EC23B4C78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HL7v2 + FHIR" sheetId="1" r:id="rId1"/>
@@ -1557,7 +1557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1597,6 +1597,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1650,7 +1656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1685,6 +1691,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1956,8 +1963,8 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3634,7 +3641,7 @@
       <c r="J34" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="16" t="s">
         <v>25</v>
       </c>
       <c r="L34" s="1" t="s">

--- a/input/images/In-Vitro At-Home Test V2 FHIR Mapping.xlsx
+++ b/input/images/In-Vitro At-Home Test V2 FHIR Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\HL7\FHIR\home-lab-report\input\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92197320-4914-4A67-9924-6BD1979AF9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCDDBBB-6FA6-48B1-9C28-21FE1325CFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HL7 V2 to FHIR" sheetId="3" r:id="rId1"/>
@@ -2481,7 +2481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF696548-21B4-4062-A0DF-3F383857234D}">
-  <dimension ref="A1:N206"/>
+  <dimension ref="A1:M206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -9507,6 +9507,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="9ed5a28f-e285-4793-933e-f86572ea3e88">
+      <UserInfo>
+        <DisplayName>Weitz, Andrew (NIH/NIBIB) [E]</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <LCG_x0020_Document_x0020_Workflow xmlns="4D6717E0-CDEB-44BF-A709-93EA007A7FBE">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </LCG_x0020_Document_x0020_Workflow>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007437C95740B27E489F4D6E839F8CF8B2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="143a829b742b703f123862b233d92dff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="9ed5a28f-e285-4793-933e-f86572ea3e88" xmlns:ns3="4D6717E0-CDEB-44BF-A709-93EA007A7FBE" xmlns:ns4="a130c0bc-081d-4a7d-8c4b-0d956631a56e" xmlns:ns5="4d6717e0-cdeb-44bf-a709-93ea007a7fbe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35372c0a9306abecb7f01b69797803a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9723,26 +9743,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="9ed5a28f-e285-4793-933e-f86572ea3e88">
-      <UserInfo>
-        <DisplayName>Weitz, Andrew (NIH/NIBIB) [E]</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <LCG_x0020_Document_x0020_Workflow xmlns="4D6717E0-CDEB-44BF-A709-93EA007A7FBE">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </LCG_x0020_Document_x0020_Workflow>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6420E821-CCF6-4442-ACB4-DDE4A770B835}">
   <ds:schemaRefs>
@@ -9752,6 +9752,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F1E9EE-CFA2-4828-A402-9D2D26481639}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9ed5a28f-e285-4793-933e-f86572ea3e88"/>
+    <ds:schemaRef ds:uri="4D6717E0-CDEB-44BF-A709-93EA007A7FBE"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76CE94C4-BFB3-484A-9445-0E2A40AF603D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9771,16 +9783,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F1E9EE-CFA2-4828-A402-9D2D26481639}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9ed5a28f-e285-4793-933e-f86572ea3e88"/>
-    <ds:schemaRef ds:uri="4D6717E0-CDEB-44BF-A709-93EA007A7FBE"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/input/images/In-Vitro At-Home Test V2 FHIR Mapping.xlsx
+++ b/input/images/In-Vitro At-Home Test V2 FHIR Mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\HL7\FHIR\home-lab-report\input\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCDDBBB-6FA6-48B1-9C28-21FE1325CFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD68510-B3E2-477F-8D84-AAC075A3F21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -918,12 +918,6 @@
     <t>Receiving system namespace (name of destination application)</t>
   </si>
   <si>
-    <t>MessageHeader.destination.id</t>
-  </si>
-  <si>
-    <t>MessageHeader-at-home-in-vitro-test-results.destination.id</t>
-  </si>
-  <si>
     <t>Receiving system OID</t>
   </si>
   <si>
@@ -1691,6 +1685,12 @@
   </si>
   <si>
     <t>Extension</t>
+  </si>
+  <si>
+    <t>MessageHeader.destination.endpoint</t>
+  </si>
+  <si>
+    <t>MessageHeader-at-home-in-vitro-test-results.destination.endpoint</t>
   </si>
 </sst>
 </file>
@@ -2485,7 +2485,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>267</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>267</v>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>268</v>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>268</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>267</v>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>276</v>
@@ -2768,7 +2768,7 @@
         <v>278</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>268</v>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>268</v>
@@ -2879,16 +2879,16 @@
         <v>269</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>286</v>
+        <v>545</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>287</v>
+        <v>546</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2918,13 +2918,13 @@
         <v>269</v>
       </c>
       <c r="K11" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>267</v>
@@ -2982,16 +2982,16 @@
         <v>20</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>279</v>
@@ -3027,13 +3027,13 @@
         <v>269</v>
       </c>
       <c r="K14" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>268</v>
@@ -3066,13 +3066,13 @@
         <v>269</v>
       </c>
       <c r="K15" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
@@ -3084,22 +3084,22 @@
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
       <c r="H16" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K16" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="64.5" x14ac:dyDescent="0.25">
@@ -3123,22 +3123,22 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K17" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>267</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>267</v>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>267</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>267</v>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>267</v>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>267</v>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>267</v>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>267</v>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>268</v>
@@ -3450,13 +3450,13 @@
         <v>269</v>
       </c>
       <c r="K27" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="M27" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>268</v>
@@ -3489,13 +3489,13 @@
         <v>269</v>
       </c>
       <c r="K28" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M28" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>268</v>
@@ -3528,13 +3528,13 @@
         <v>269</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
@@ -3558,20 +3558,20 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>268</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
@@ -3602,13 +3602,13 @@
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -3787,22 +3787,22 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K37" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="M37" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
@@ -3826,22 +3826,22 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K38" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="M38" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>267</v>
@@ -3938,13 +3938,13 @@
         <v>269</v>
       </c>
       <c r="K41" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="M41" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -3979,13 +3979,13 @@
         <v>269</v>
       </c>
       <c r="K42" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="M42" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -4020,13 +4020,13 @@
         <v>269</v>
       </c>
       <c r="K43" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="M43" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -4061,13 +4061,13 @@
         <v>269</v>
       </c>
       <c r="K44" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="M44" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -4096,19 +4096,19 @@
         <v>70</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K45" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="M45" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -4143,13 +4143,13 @@
         <v>269</v>
       </c>
       <c r="K46" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="M46" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="39" x14ac:dyDescent="0.25">
@@ -4182,13 +4182,13 @@
         <v>269</v>
       </c>
       <c r="K47" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="M47" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>268</v>
@@ -4221,13 +4221,13 @@
         <v>269</v>
       </c>
       <c r="K48" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="M48" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>268</v>
@@ -4260,13 +4260,13 @@
         <v>269</v>
       </c>
       <c r="K49" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="M49" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -4292,22 +4292,22 @@
         <v>63</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K50" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="M50" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -4333,22 +4333,22 @@
         <v>63</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J51" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K51" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="M51" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="39" x14ac:dyDescent="0.25">
@@ -4374,7 +4374,7 @@
         <v>63</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>268</v>
@@ -4383,13 +4383,13 @@
         <v>269</v>
       </c>
       <c r="K52" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="M52" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -4415,7 +4415,7 @@
         <v>63</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>268</v>
@@ -4424,13 +4424,13 @@
         <v>269</v>
       </c>
       <c r="K53" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -4456,7 +4456,7 @@
         <v>11</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>268</v>
@@ -4465,13 +4465,13 @@
         <v>269</v>
       </c>
       <c r="K54" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="M54" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="39" x14ac:dyDescent="0.25">
@@ -4504,13 +4504,13 @@
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
@@ -4536,22 +4536,22 @@
         <v>63</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J56" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K56" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="M56" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -4577,7 +4577,7 @@
         <v>63</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>268</v>
@@ -4586,13 +4586,13 @@
         <v>269</v>
       </c>
       <c r="K57" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="M57" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="39" x14ac:dyDescent="0.25">
@@ -4618,7 +4618,7 @@
         <v>63</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>268</v>
@@ -4627,13 +4627,13 @@
         <v>269</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="39" x14ac:dyDescent="0.25">
@@ -4659,7 +4659,7 @@
         <v>63</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>268</v>
@@ -4668,13 +4668,13 @@
         <v>269</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -4707,13 +4707,13 @@
       </c>
       <c r="J60" s="9"/>
       <c r="K60" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="M60" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="39" x14ac:dyDescent="0.25">
@@ -4744,13 +4744,13 @@
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="M61" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -4774,20 +4774,20 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I62" s="8" t="s">
         <v>268</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="M62" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -4811,20 +4811,20 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I63" s="8" t="s">
         <v>268</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="M63" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I64" s="8" t="s">
         <v>267</v>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I65" s="8" t="s">
         <v>267</v>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>267</v>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>267</v>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>267</v>
@@ -5003,7 +5003,7 @@
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>267</v>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>267</v>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>267</v>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>267</v>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>267</v>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>267</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>267</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>267</v>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>267</v>
@@ -5344,7 +5344,7 @@
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>267</v>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>267</v>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>267</v>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I83" s="8" t="s">
         <v>267</v>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I84" s="8" t="s">
         <v>267</v>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I85" s="8" t="s">
         <v>267</v>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I86" s="8" t="s">
         <v>267</v>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I87" s="8" t="s">
         <v>267</v>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I88" s="8" t="s">
         <v>267</v>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I90" s="8" t="s">
         <v>267</v>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I91" s="8" t="s">
         <v>267</v>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>267</v>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I96" s="8" t="s">
         <v>267</v>
@@ -5874,19 +5874,19 @@
         <v>133</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J97" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
@@ -5910,17 +5910,17 @@
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I98" s="8" t="s">
         <v>267</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M98" s="6"/>
     </row>
@@ -5945,17 +5945,17 @@
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I99" s="8" t="s">
         <v>267</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M99" s="6"/>
     </row>
@@ -5987,10 +5987,10 @@
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="L100" s="6" t="s">
         <v>417</v>
-      </c>
-      <c r="L100" s="6" t="s">
-        <v>419</v>
       </c>
       <c r="M100" s="6"/>
     </row>
@@ -6015,7 +6015,7 @@
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I101" s="8" t="s">
         <v>267</v>
@@ -6046,17 +6046,17 @@
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I102" s="8" t="s">
         <v>267</v>
       </c>
       <c r="J102" s="9"/>
       <c r="K102" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M102" s="6"/>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I103" s="8" t="s">
         <v>267</v>
@@ -6121,13 +6121,13 @@
         <v>269</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -6151,19 +6151,19 @@
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J105" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M105" s="6" t="s">
         <v>138</v>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I106" s="8" t="s">
         <v>267</v>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I107" s="8" t="s">
         <v>267</v>
@@ -6261,13 +6261,13 @@
         <v>269</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
@@ -6300,13 +6300,13 @@
         <v>269</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
@@ -6339,13 +6339,13 @@
         <v>269</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -6369,20 +6369,20 @@
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I111" s="8" t="s">
         <v>268</v>
       </c>
       <c r="J111" s="9"/>
       <c r="K111" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -6415,13 +6415,13 @@
         <v>269</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
@@ -6454,13 +6454,13 @@
         <v>269</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
@@ -6484,20 +6484,20 @@
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I114" s="8" t="s">
         <v>268</v>
       </c>
       <c r="J114" s="9"/>
       <c r="K114" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
@@ -6528,13 +6528,13 @@
       </c>
       <c r="J115" s="1"/>
       <c r="K115" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -6682,22 +6682,22 @@
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J120" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I121" s="8" t="s">
         <v>267</v>
@@ -6752,22 +6752,22 @@
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J122" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -6791,14 +6791,14 @@
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I123" s="8" t="s">
         <v>267</v>
       </c>
       <c r="J123" s="9"/>
       <c r="K123" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I124" s="8" t="s">
         <v>267</v>
@@ -6855,22 +6855,22 @@
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J125" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M125" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I126" s="8" t="s">
         <v>267</v>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I127" s="8" t="s">
         <v>267</v>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I128" s="8" t="s">
         <v>267</v>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I129" s="8" t="s">
         <v>267</v>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I130" s="8" t="s">
         <v>267</v>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I131" s="7" t="s">
         <v>267</v>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I132" s="8" t="s">
         <v>267</v>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I136" s="7" t="s">
         <v>267</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I137" s="8" t="s">
         <v>267</v>
@@ -7266,7 +7266,7 @@
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I138" s="8" t="s">
         <v>267</v>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I139" s="8" t="s">
         <v>267</v>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I141" s="8" t="s">
         <v>267</v>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I143" s="8" t="s">
         <v>267</v>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I144" s="8" t="s">
         <v>267</v>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I145" s="8" t="s">
         <v>267</v>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I147" s="8" t="s">
         <v>267</v>
@@ -7578,7 +7578,7 @@
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I148" s="8" t="s">
         <v>267</v>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I149" s="8" t="s">
         <v>267</v>
@@ -7640,7 +7640,7 @@
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I150" s="8" t="s">
         <v>267</v>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I151" s="8" t="s">
         <v>267</v>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I152" s="8" t="s">
         <v>267</v>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I153" s="8" t="s">
         <v>267</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I154" s="8" t="s">
         <v>267</v>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I155" s="8" t="s">
         <v>267</v>
@@ -7826,7 +7826,7 @@
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I156" s="8" t="s">
         <v>267</v>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I157" s="8" t="s">
         <v>267</v>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I158" s="8" t="s">
         <v>267</v>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I159" s="8" t="s">
         <v>268</v>
@@ -7928,13 +7928,13 @@
         <v>269</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M159" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="39" x14ac:dyDescent="0.25">
@@ -7958,7 +7958,7 @@
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I160" s="8" t="s">
         <v>268</v>
@@ -7967,13 +7967,13 @@
         <v>269</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M160" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I161" s="8" t="s">
         <v>268</v>
@@ -8006,13 +8006,13 @@
         <v>269</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L161" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M161" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -8036,20 +8036,20 @@
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I162" s="8" t="s">
         <v>268</v>
       </c>
       <c r="J162" s="9"/>
       <c r="K162" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L162" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M162" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
@@ -8075,7 +8075,7 @@
         <v>63</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I163" s="8" t="s">
         <v>268</v>
@@ -8084,13 +8084,13 @@
         <v>269</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M163" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -8114,7 +8114,7 @@
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I164" s="8" t="s">
         <v>267</v>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I165" s="8" t="s">
         <v>267</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I166" s="8" t="s">
         <v>267</v>
@@ -8207,7 +8207,7 @@
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I167" s="8" t="s">
         <v>267</v>
@@ -8238,7 +8238,7 @@
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I168" s="8" t="s">
         <v>267</v>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I169" s="8" t="s">
         <v>267</v>
@@ -8300,7 +8300,7 @@
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I170" s="8" t="s">
         <v>267</v>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I171" s="8" t="s">
         <v>267</v>
@@ -8362,7 +8362,7 @@
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I172" s="8" t="s">
         <v>267</v>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I173" s="8" t="s">
         <v>267</v>
@@ -8455,7 +8455,7 @@
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I175" s="8" t="s">
         <v>267</v>
@@ -8488,20 +8488,20 @@
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I176" s="8" t="s">
         <v>268</v>
       </c>
       <c r="J176" s="9"/>
       <c r="K176" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L176" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M176" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I177" s="8" t="s">
         <v>268</v>
@@ -8534,13 +8534,13 @@
         <v>269</v>
       </c>
       <c r="K177" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L177" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M177" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I178" s="8" t="s">
         <v>268</v>
@@ -8573,13 +8573,13 @@
         <v>269</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L178" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M178" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -8603,20 +8603,20 @@
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I179" s="8" t="s">
         <v>268</v>
       </c>
       <c r="J179" s="9"/>
       <c r="K179" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L179" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M179" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
@@ -8649,13 +8649,13 @@
         <v>269</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L180" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M180" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I181" s="8" t="s">
         <v>267</v>
@@ -8710,7 +8710,7 @@
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I182" s="8" t="s">
         <v>267</v>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I183" s="8" t="s">
         <v>267</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I184" s="8" t="s">
         <v>267</v>
@@ -8803,7 +8803,7 @@
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I185" s="8" t="s">
         <v>267</v>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I186" s="8" t="s">
         <v>267</v>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I187" s="8" t="s">
         <v>267</v>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I188" s="8" t="s">
         <v>267</v>
@@ -8927,7 +8927,7 @@
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I189" s="8" t="s">
         <v>267</v>
@@ -8958,7 +8958,7 @@
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I190" s="8" t="s">
         <v>267</v>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I192" s="8" t="s">
         <v>268</v>
@@ -9029,13 +9029,13 @@
         <v>269</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L192" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M192" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="39" x14ac:dyDescent="0.25">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I193" s="8" t="s">
         <v>268</v>
@@ -9068,13 +9068,13 @@
         <v>269</v>
       </c>
       <c r="K193" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L193" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M193" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I194" s="8" t="s">
         <v>268</v>
@@ -9107,13 +9107,13 @@
         <v>269</v>
       </c>
       <c r="K194" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L194" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M194" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
@@ -9146,13 +9146,13 @@
         <v>269</v>
       </c>
       <c r="K195" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L195" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M195" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
@@ -9185,13 +9185,13 @@
         <v>269</v>
       </c>
       <c r="K196" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="L196" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="L196" s="6" t="s">
-        <v>398</v>
-      </c>
       <c r="M196" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
@@ -9215,7 +9215,7 @@
       </c>
       <c r="G197" s="1"/>
       <c r="H197" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I197" s="8" t="s">
         <v>268</v>
@@ -9224,13 +9224,13 @@
         <v>269</v>
       </c>
       <c r="K197" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L197" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M197" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
@@ -9261,13 +9261,13 @@
       </c>
       <c r="J198" s="9"/>
       <c r="K198" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L198" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M198" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
@@ -9294,19 +9294,19 @@
         <v>260</v>
       </c>
       <c r="I199" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J199" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K199" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L199" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M199" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -9342,12 +9342,12 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E201" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
       <c r="H201" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I201" s="8" t="s">
         <v>268</v>
@@ -9356,23 +9356,23 @@
         <v>269</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L201" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M201" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E202" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F202" s="9"/>
       <c r="G202" s="9"/>
       <c r="H202" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I202" s="8" t="s">
         <v>268</v>
@@ -9381,10 +9381,10 @@
         <v>269</v>
       </c>
       <c r="K202" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L202" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M202" s="6" t="str">
         <f>Table4[[#This Row],[Title ]]</f>
@@ -9393,12 +9393,12 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E203" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
       <c r="H203" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I203" s="8" t="s">
         <v>268</v>
@@ -9407,10 +9407,10 @@
         <v>269</v>
       </c>
       <c r="K203" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L203" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="M203" s="6" t="str">
         <f>Table4[[#This Row],[Title ]]</f>
@@ -9419,12 +9419,12 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E204" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F204" s="9"/>
       <c r="G204" s="9"/>
       <c r="H204" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I204" s="8" t="s">
         <v>268</v>
@@ -9433,10 +9433,10 @@
         <v>269</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L204" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M204" s="6" t="str">
         <f>Table4[[#This Row],[Title ]]</f>
@@ -9445,48 +9445,48 @@
     </row>
     <row r="205" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
       <c r="E205" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F205" s="9"/>
       <c r="G205" s="9"/>
       <c r="H205" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I205" s="8" t="s">
         <v>268</v>
       </c>
       <c r="J205" s="9"/>
       <c r="K205" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L205" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M205" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="206" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="E206" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F206" s="9"/>
       <c r="G206" s="9"/>
       <c r="H206" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I206" s="8" t="s">
         <v>268</v>
       </c>
       <c r="J206" s="9"/>
       <c r="K206" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="L206" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M206" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -9507,26 +9507,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="9ed5a28f-e285-4793-933e-f86572ea3e88">
-      <UserInfo>
-        <DisplayName>Weitz, Andrew (NIH/NIBIB) [E]</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <LCG_x0020_Document_x0020_Workflow xmlns="4D6717E0-CDEB-44BF-A709-93EA007A7FBE">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </LCG_x0020_Document_x0020_Workflow>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007437C95740B27E489F4D6E839F8CF8B2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="143a829b742b703f123862b233d92dff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="9ed5a28f-e285-4793-933e-f86572ea3e88" xmlns:ns3="4D6717E0-CDEB-44BF-A709-93EA007A7FBE" xmlns:ns4="a130c0bc-081d-4a7d-8c4b-0d956631a56e" xmlns:ns5="4d6717e0-cdeb-44bf-a709-93ea007a7fbe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35372c0a9306abecb7f01b69797803a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9743,6 +9723,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="9ed5a28f-e285-4793-933e-f86572ea3e88">
+      <UserInfo>
+        <DisplayName>Weitz, Andrew (NIH/NIBIB) [E]</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <LCG_x0020_Document_x0020_Workflow xmlns="4D6717E0-CDEB-44BF-A709-93EA007A7FBE">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </LCG_x0020_Document_x0020_Workflow>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6420E821-CCF6-4442-ACB4-DDE4A770B835}">
   <ds:schemaRefs>
@@ -9752,18 +9752,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F1E9EE-CFA2-4828-A402-9D2D26481639}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9ed5a28f-e285-4793-933e-f86572ea3e88"/>
-    <ds:schemaRef ds:uri="4D6717E0-CDEB-44BF-A709-93EA007A7FBE"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76CE94C4-BFB3-484A-9445-0E2A40AF603D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9783,4 +9771,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F1E9EE-CFA2-4828-A402-9D2D26481639}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9ed5a28f-e285-4793-933e-f86572ea3e88"/>
+    <ds:schemaRef ds:uri="4D6717E0-CDEB-44BF-A709-93EA007A7FBE"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input/images/In-Vitro At-Home Test V2 FHIR Mapping.xlsx
+++ b/input/images/In-Vitro At-Home Test V2 FHIR Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\HL7\FHIR\home-lab-report\input\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD68510-B3E2-477F-8D84-AAC075A3F21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A571447A-51C3-4FD4-BC8A-47BB086890EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HL7 V2 to FHIR" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="545">
   <si>
     <t>Index</t>
   </si>
@@ -869,37 +869,19 @@
     <t>Sending system namespace (name of app)</t>
   </si>
   <si>
-    <t>MessageHeader.source.id</t>
-  </si>
-  <si>
-    <t>MessageHeader-at-home-in-vitro-test-results.source.id</t>
-  </si>
-  <si>
     <t>Sending system OID</t>
   </si>
   <si>
     <t>0…1</t>
   </si>
   <si>
-    <t>MessageHeader.sender(Organization).name</t>
-  </si>
-  <si>
     <t>MessageHeader-at-home-in-vitro-test-results.sender(US Core Organization).name</t>
   </si>
   <si>
-    <t>US Core: Name used for the organization</t>
-  </si>
-  <si>
-    <t>MessageHeader.sender(Organization).identifier.value</t>
-  </si>
-  <si>
     <t>MessageHeader-at-home-in-vitro-test-results.sender(US Core Organization).identifier:CLIA.value</t>
   </si>
   <si>
     <t>US Core: Clinical Laboratory Improvement Amendments (CLIA) Number for laboratories</t>
-  </si>
-  <si>
-    <t>MessageHeader.sender(Organization).identifier.system</t>
   </si>
   <si>
     <t>MessageHeader-at-home-in-vitro-test-results.sender(US Core Organization).identifier.system</t>
@@ -924,31 +906,10 @@
     <t>1…1</t>
   </si>
   <si>
-    <t>MessageHeader.destination.receiver(Organization).name</t>
-  </si>
-  <si>
-    <t>MessageHeader-at-home-in-vitro-test-results.receiver(US Core Organization).name</t>
-  </si>
-  <si>
-    <t>MessageHeader.destination.receiver(Organization).identifier.value</t>
-  </si>
-  <si>
-    <t>MessageHeader-at-home-in-vitro-test-results.receiver(US Core Organization).identifier.value</t>
-  </si>
-  <si>
     <t>US Core: Identifies this organization across multiple systems (the value that is unique)</t>
   </si>
   <si>
     <t>1..1</t>
-  </si>
-  <si>
-    <t>MessageHeader.destination.receiver(Organization).identifier.system</t>
-  </si>
-  <si>
-    <t>MessageHeader-at-home-in-vitro-test-results.receiver(US Core Organization).identifier.system</t>
-  </si>
-  <si>
-    <t>US Core: Identifies this organization across multiple systems (the namespace for the identifier value)</t>
   </si>
   <si>
     <t>Bundle.timestamp</t>
@@ -1687,10 +1648,64 @@
     <t>Extension</t>
   </si>
   <si>
-    <t>MessageHeader.destination.endpoint</t>
-  </si>
-  <si>
     <t>MessageHeader-at-home-in-vitro-test-results.destination.endpoint</t>
+  </si>
+  <si>
+    <t>MessageHeader-at-home-in-vitro-test-results.destination.receiver(US Core Organization).identifier.type</t>
+  </si>
+  <si>
+    <t>MessageHeader-at-home-in-vitro-test-results.destination.receiver(US Core Organization).identifier.value</t>
+  </si>
+  <si>
+    <t>MessageHeader-at-home-in-vitro-test-results.receiver(US Core Organization).name
+MessageHeader-at-home-in-vitro-test-results.receiver(US Core Organization).identifier.system</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MessageHeader.destination.endpoint
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MessageHeader.destination.name</t>
+    </r>
+  </si>
+  <si>
+    <t>MessageHeader.sender(Organization.identifer[CLIA].value)</t>
+  </si>
+  <si>
+    <t>MessageHeader.sender(Organization.name)</t>
+  </si>
+  <si>
+    <t>MessageHeader.destination.receiver(Organization.identifier.system)</t>
+  </si>
+  <si>
+    <t>MessageHeader.destination.receiver(Organization.identifier.type)</t>
+  </si>
+  <si>
+    <t>MessageHeader.destination.receiver(Organization.name)
+MessageHeader.destination.receiver(Organization.identifier.value)</t>
+  </si>
+  <si>
+    <t>MessageHeader.sender(Organization.identifer[CLIA].system)</t>
+  </si>
+  <si>
+    <t>MessageHeader.source.id</t>
+  </si>
+  <si>
+    <t>MessageHeader-at-home-in-vitro-test-results.source.id</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1805,6 +1820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2153,15 +2169,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D9C36EF5-049B-409A-B11E-65F49120FF6A}" name="Table4" displayName="Table4" ref="A1:M206" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14">
-  <autoFilter ref="A1:M206" xr:uid="{D9C36EF5-049B-409A-B11E-65F49120FF6A}">
-    <filterColumn colId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D9C36EF5-049B-409A-B11E-65F49120FF6A}" name="Table4" displayName="Table4" ref="A1:M205" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14">
+  <autoFilter ref="A1:M205" xr:uid="{D9C36EF5-049B-409A-B11E-65F49120FF6A}">
+    <filterColumn colId="9">
       <filters>
-        <filter val="0..*"/>
-        <filter val="0..1"/>
-        <filter val="0…1"/>
-        <filter val="1..1"/>
-        <filter val="1…1"/>
+        <filter val="MS"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2481,30 +2493,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF696548-21B4-4062-A0DF-3F383857234D}">
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.578125" customWidth="1"/>
+    <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83984375" customWidth="1"/>
+    <col min="4" max="4" width="12.15625" customWidth="1"/>
+    <col min="5" max="5" width="19.41796875" customWidth="1"/>
+    <col min="6" max="6" width="13.83984375" customWidth="1"/>
+    <col min="7" max="7" width="12.68359375" customWidth="1"/>
     <col min="8" max="8" width="31" style="14" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.15625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="12" width="51.28515625" style="14" customWidth="1"/>
+    <col min="11" max="12" width="51.26171875" style="14" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2545,7 +2557,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2566,7 +2578,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>267</v>
@@ -2584,7 +2596,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2605,7 +2617,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>267</v>
@@ -2623,7 +2635,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2644,7 +2656,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>268</v>
@@ -2662,7 +2674,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2683,7 +2695,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>268</v>
@@ -2692,16 +2704,16 @@
         <v>269</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2722,7 +2734,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>267</v>
@@ -2732,7 +2744,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="15" customFormat="1" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2753,25 +2765,25 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>277</v>
+        <v>538</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="15" customFormat="1" ht="35.700000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2792,7 +2804,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>268</v>
@@ -2801,16 +2813,16 @@
         <v>269</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>280</v>
+        <v>537</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="15" customFormat="1" ht="47.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2831,7 +2843,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>268</v>
@@ -2840,16 +2852,16 @@
         <v>269</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>283</v>
+        <v>542</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2879,16 +2891,16 @@
         <v>269</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2918,16 +2930,16 @@
         <v>269</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2948,7 +2960,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>267</v>
@@ -2958,7 +2970,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="47.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2982,22 +2994,22 @@
         <v>20</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>291</v>
+        <v>541</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>292</v>
+        <v>535</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3027,16 +3039,16 @@
         <v>269</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>293</v>
+        <v>539</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>294</v>
+        <v>534</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3057,7 +3069,7 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="2" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>268</v>
@@ -3066,45 +3078,57 @@
         <v>269</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>293</v>
+        <v>540</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>294</v>
+        <v>533</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="64.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="64.5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
@@ -3113,37 +3137,29 @@
         <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="2" t="s">
-        <v>463</v>
+      <c r="H17" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -3152,17 +3168,17 @@
         <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>267</v>
@@ -3172,9 +3188,9 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
@@ -3183,17 +3199,17 @@
         <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>267</v>
@@ -3203,9 +3219,9 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
@@ -3214,17 +3230,17 @@
         <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>9.3000000000000007</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>267</v>
@@ -3234,9 +3250,9 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
@@ -3245,17 +3261,17 @@
         <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>267</v>
@@ -3265,9 +3281,9 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>8</v>
@@ -3276,17 +3292,17 @@
         <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>11.1</v>
+        <v>12.1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>468</v>
+        <v>163</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>267</v>
@@ -3296,9 +3312,9 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
@@ -3307,17 +3323,17 @@
         <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>12.1</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>163</v>
+        <v>456</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>267</v>
@@ -3327,9 +3343,9 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>8</v>
@@ -3338,17 +3354,17 @@
         <v>1</v>
       </c>
       <c r="D24" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>267</v>
@@ -3358,9 +3374,9 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>8</v>
@@ -3369,17 +3385,17 @@
         <v>1</v>
       </c>
       <c r="D25" s="3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>267</v>
@@ -3389,40 +3405,48 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>470</v>
+      <c r="H26" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>36</v>
@@ -3431,17 +3455,17 @@
         <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>268</v>
@@ -3450,18 +3474,18 @@
         <v>269</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>36</v>
@@ -3470,17 +3494,17 @@
         <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>268</v>
@@ -3489,18 +3513,18 @@
         <v>269</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>36</v>
@@ -3509,37 +3533,35 @@
         <v>1</v>
       </c>
       <c r="D29" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J29" s="9" t="s">
-        <v>269</v>
-      </c>
+      <c r="J29" s="9"/>
       <c r="K29" s="6" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>36</v>
@@ -3548,72 +3570,66 @@
         <v>1</v>
       </c>
       <c r="D30" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="2" t="s">
-        <v>457</v>
+        <v>43</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>268</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="6" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>36</v>
@@ -3622,17 +3638,17 @@
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>267</v>
@@ -3642,9 +3658,9 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>36</v>
@@ -3653,17 +3669,17 @@
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>267</v>
@@ -3673,9 +3689,9 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>36</v>
@@ -3684,17 +3700,17 @@
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>267</v>
@@ -3704,40 +3720,40 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C35" s="1">
-        <v>2</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>52</v>
@@ -3746,29 +3762,37 @@
         <v>1</v>
       </c>
       <c r="D36" s="3">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>183</v>
+      <c r="H36" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-    </row>
-    <row r="37" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>52</v>
@@ -3776,38 +3800,38 @@
       <c r="C37" s="1">
         <v>1</v>
       </c>
-      <c r="D37" s="3">
-        <v>3.1</v>
+      <c r="D37" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="2" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>52</v>
@@ -3816,37 +3840,29 @@
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="2" t="s">
-        <v>472</v>
+      <c r="H38" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>52</v>
@@ -3854,30 +3870,30 @@
       <c r="C39" s="1">
         <v>1</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>456</v>
+      <c r="D39" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="J39" s="9"/>
+      <c r="J39" s="12"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>52</v>
@@ -3886,29 +3902,39 @@
         <v>1</v>
       </c>
       <c r="D40" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4" t="s">
-        <v>60</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J40" s="12"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-    </row>
-    <row r="41" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>52</v>
@@ -3917,10 +3943,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>62</v>
@@ -3929,7 +3955,7 @@
         <v>63</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>268</v>
@@ -3938,18 +3964,18 @@
         <v>269</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>52</v>
@@ -3958,10 +3984,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="3">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>62</v>
@@ -3979,18 +4005,18 @@
         <v>269</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>52</v>
@@ -3999,10 +4025,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="3">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>62</v>
@@ -4011,7 +4037,7 @@
         <v>63</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>268</v>
@@ -4020,18 +4046,18 @@
         <v>269</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>52</v>
@@ -4040,10 +4066,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>62</v>
@@ -4052,27 +4078,27 @@
         <v>63</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>52</v>
@@ -4081,10 +4107,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="3">
-        <v>8</v>
+        <v>10.1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>62</v>
@@ -4093,27 +4119,27 @@
         <v>63</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>52</v>
@@ -4122,19 +4148,17 @@
         <v>1</v>
       </c>
       <c r="D46" s="3">
-        <v>10.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>268</v>
@@ -4143,18 +4167,18 @@
         <v>269</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>52</v>
@@ -4163,17 +4187,17 @@
         <v>1</v>
       </c>
       <c r="D47" s="3">
-        <v>10.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="2" t="s">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>268</v>
@@ -4182,18 +4206,18 @@
         <v>269</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>52</v>
@@ -4202,17 +4226,17 @@
         <v>1</v>
       </c>
       <c r="D48" s="3">
-        <v>10.3</v>
+        <v>10.7</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="2" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>268</v>
@@ -4221,18 +4245,18 @@
         <v>269</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>52</v>
@@ -4241,37 +4265,39 @@
         <v>1</v>
       </c>
       <c r="D49" s="3">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="H49" s="2" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>52</v>
@@ -4280,10 +4306,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="3">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>62</v>
@@ -4292,27 +4318,27 @@
         <v>63</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>52</v>
@@ -4320,40 +4346,40 @@
       <c r="C51" s="1">
         <v>1</v>
       </c>
-      <c r="D51" s="3">
-        <v>11.2</v>
+      <c r="D51" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="J51" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>52</v>
@@ -4361,40 +4387,40 @@
       <c r="C52" s="1">
         <v>1</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>80</v>
+      <c r="D52" s="3">
+        <v>11.4</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="I52" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="I52" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="J52" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K52" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="K52" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>52</v>
@@ -4403,39 +4429,39 @@
         <v>1</v>
       </c>
       <c r="D53" s="3">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="I53" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="I53" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K53" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="K53" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>52</v>
@@ -4444,39 +4470,37 @@
         <v>1</v>
       </c>
       <c r="D54" s="3">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>457</v>
+        <v>86</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J54" s="9" t="s">
-        <v>269</v>
-      </c>
+      <c r="J54" s="9"/>
       <c r="K54" s="6" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>344</v>
+        <v>525</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>52</v>
@@ -4485,37 +4509,39 @@
         <v>1</v>
       </c>
       <c r="D55" s="3">
-        <v>11.9</v>
+        <v>13.3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>86</v>
+        <v>462</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="J55" s="9"/>
+        <v>286</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="K55" s="6" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>538</v>
+        <v>335</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>52</v>
@@ -4524,10 +4550,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="3">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>62</v>
@@ -4536,27 +4562,27 @@
         <v>63</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="J56" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>52</v>
@@ -4565,10 +4591,10 @@
         <v>1</v>
       </c>
       <c r="D57" s="3">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>62</v>
@@ -4577,7 +4603,7 @@
         <v>63</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>268</v>
@@ -4586,18 +4612,18 @@
         <v>269</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>52</v>
@@ -4606,10 +4632,10 @@
         <v>1</v>
       </c>
       <c r="D58" s="3">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>62</v>
@@ -4618,7 +4644,7 @@
         <v>63</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>268</v>
@@ -4627,18 +4653,18 @@
         <v>269</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="26.1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>52</v>
@@ -4647,10 +4673,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="3">
-        <v>13.7</v>
+        <v>22.1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>62</v>
@@ -4659,27 +4685,25 @@
         <v>63</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>477</v>
+        <v>92</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J59" s="9" t="s">
-        <v>269</v>
-      </c>
+      <c r="J59" s="9"/>
       <c r="K59" s="6" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>52</v>
@@ -4688,37 +4712,35 @@
         <v>1</v>
       </c>
       <c r="D60" s="3">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G60" s="1"/>
       <c r="H60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I60" s="8" t="s">
         <v>268</v>
       </c>
       <c r="J60" s="9"/>
       <c r="K60" s="6" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>52</v>
@@ -4727,35 +4749,35 @@
         <v>1</v>
       </c>
       <c r="D61" s="3">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="2" t="s">
-        <v>94</v>
+        <v>465</v>
       </c>
       <c r="I61" s="8" t="s">
         <v>268</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="6" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>52</v>
@@ -4764,72 +4786,66 @@
         <v>1</v>
       </c>
       <c r="D62" s="3">
-        <v>22.3</v>
+        <v>22.7</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="2" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="I62" s="8" t="s">
         <v>268</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="6" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
       </c>
       <c r="D63" s="3">
-        <v>22.7</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G63" s="1"/>
-      <c r="H63" s="2" t="s">
-        <v>479</v>
+      <c r="H63" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J63" s="9"/>
-      <c r="K63" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+    </row>
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>97</v>
@@ -4838,17 +4854,17 @@
         <v>1</v>
       </c>
       <c r="D64" s="3">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="I64" s="8" t="s">
         <v>267</v>
@@ -4858,9 +4874,9 @@
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>97</v>
@@ -4869,17 +4885,17 @@
         <v>1</v>
       </c>
       <c r="D65" s="3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="I65" s="8" t="s">
         <v>267</v>
@@ -4889,9 +4905,9 @@
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>97</v>
@@ -4900,17 +4916,17 @@
         <v>1</v>
       </c>
       <c r="D66" s="3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>267</v>
@@ -4920,9 +4936,9 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="26.1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>97</v>
@@ -4931,17 +4947,17 @@
         <v>1</v>
       </c>
       <c r="D67" s="3">
-        <v>3.4</v>
+        <v>12.1</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>267</v>
@@ -4951,9 +4967,9 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="1:13" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="26.1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>97</v>
@@ -4962,17 +4978,17 @@
         <v>1</v>
       </c>
       <c r="D68" s="3">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>267</v>
@@ -4982,9 +4998,9 @@
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
     </row>
-    <row r="69" spans="1:13" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>97</v>
@@ -4993,17 +5009,17 @@
         <v>1</v>
       </c>
       <c r="D69" s="3">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>483</v>
+        <v>106</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>267</v>
@@ -5013,9 +5029,9 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>97</v>
@@ -5023,18 +5039,18 @@
       <c r="C70" s="1">
         <v>1</v>
       </c>
-      <c r="D70" s="3">
-        <v>12.3</v>
+      <c r="D70" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
-        <v>106</v>
+        <v>471</v>
       </c>
       <c r="I70" s="8" t="s">
         <v>267</v>
@@ -5044,9 +5060,9 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>97</v>
@@ -5055,17 +5071,17 @@
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>267</v>
@@ -5075,9 +5091,9 @@
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>97</v>
@@ -5085,18 +5101,18 @@
       <c r="C72" s="1">
         <v>1</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>109</v>
+      <c r="D72" s="3">
+        <v>12.13</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>267</v>
@@ -5106,9 +5122,9 @@
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>97</v>
@@ -5117,17 +5133,17 @@
         <v>1</v>
       </c>
       <c r="D73" s="3">
-        <v>12.13</v>
+        <v>21.1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>486</v>
+        <v>106</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>267</v>
@@ -5137,9 +5153,9 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>97</v>
@@ -5148,17 +5164,17 @@
         <v>1</v>
       </c>
       <c r="D74" s="3">
-        <v>21.1</v>
+        <v>22.1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>106</v>
+        <v>474</v>
       </c>
       <c r="I74" s="8" t="s">
         <v>267</v>
@@ -5168,9 +5184,9 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>97</v>
@@ -5179,17 +5195,17 @@
         <v>1</v>
       </c>
       <c r="D75" s="3">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>267</v>
@@ -5199,9 +5215,9 @@
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>97</v>
@@ -5210,17 +5226,17 @@
         <v>1</v>
       </c>
       <c r="D76" s="3">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>267</v>
@@ -5230,9 +5246,9 @@
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>97</v>
@@ -5241,17 +5257,17 @@
         <v>1</v>
       </c>
       <c r="D77" s="3">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>267</v>
@@ -5261,9 +5277,9 @@
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>97</v>
@@ -5272,17 +5288,17 @@
         <v>1</v>
       </c>
       <c r="D78" s="3">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>267</v>
@@ -5292,9 +5308,9 @@
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>97</v>
@@ -5303,17 +5319,17 @@
         <v>1</v>
       </c>
       <c r="D79" s="3">
-        <v>22.5</v>
+        <v>22.9</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>267</v>
@@ -5323,9 +5339,9 @@
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>97</v>
@@ -5334,17 +5350,17 @@
         <v>1</v>
       </c>
       <c r="D80" s="3">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>267</v>
@@ -5354,9 +5370,9 @@
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>97</v>
@@ -5365,17 +5381,17 @@
         <v>1</v>
       </c>
       <c r="D81" s="3">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>267</v>
@@ -5385,9 +5401,9 @@
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="26.1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>97</v>
@@ -5396,17 +5412,17 @@
         <v>1</v>
       </c>
       <c r="D82" s="3">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>267</v>
@@ -5416,9 +5432,9 @@
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
     </row>
-    <row r="83" spans="1:13" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>97</v>
@@ -5427,17 +5443,17 @@
         <v>1</v>
       </c>
       <c r="D83" s="3">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="I83" s="8" t="s">
         <v>267</v>
@@ -5447,9 +5463,9 @@
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="26.1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>97</v>
@@ -5458,17 +5474,17 @@
         <v>1</v>
       </c>
       <c r="D84" s="3">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="I84" s="8" t="s">
         <v>267</v>
@@ -5478,9 +5494,9 @@
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
     </row>
-    <row r="85" spans="1:13" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="26.1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>97</v>
@@ -5489,17 +5505,17 @@
         <v>1</v>
       </c>
       <c r="D85" s="3">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="I85" s="8" t="s">
         <v>267</v>
@@ -5509,9 +5525,9 @@
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
     </row>
-    <row r="86" spans="1:13" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="26.1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>97</v>
@@ -5520,17 +5536,17 @@
         <v>1</v>
       </c>
       <c r="D86" s="3">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="I86" s="8" t="s">
         <v>267</v>
@@ -5540,9 +5556,9 @@
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
     </row>
-    <row r="87" spans="1:13" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>97</v>
@@ -5551,17 +5567,17 @@
         <v>1</v>
       </c>
       <c r="D87" s="3">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="I87" s="8" t="s">
         <v>267</v>
@@ -5571,28 +5587,28 @@
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
       </c>
       <c r="D88" s="3">
-        <v>24.9</v>
+        <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>457</v>
+        <v>183</v>
       </c>
       <c r="I88" s="8" t="s">
         <v>267</v>
@@ -5602,9 +5618,9 @@
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>127</v>
@@ -5613,17 +5629,17 @@
         <v>1</v>
       </c>
       <c r="D89" s="3">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
-        <v>183</v>
+        <v>482</v>
       </c>
       <c r="I89" s="8" t="s">
         <v>267</v>
@@ -5633,9 +5649,9 @@
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>127</v>
@@ -5644,17 +5660,17 @@
         <v>1</v>
       </c>
       <c r="D90" s="3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="I90" s="8" t="s">
         <v>267</v>
@@ -5664,9 +5680,9 @@
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>127</v>
@@ -5675,17 +5691,17 @@
         <v>1</v>
       </c>
       <c r="D91" s="3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>496</v>
+        <v>443</v>
       </c>
       <c r="I91" s="8" t="s">
         <v>267</v>
@@ -5695,9 +5711,9 @@
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>127</v>
@@ -5706,17 +5722,17 @@
         <v>1</v>
       </c>
       <c r="D92" s="3">
-        <v>3.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
-        <v>456</v>
+        <v>106</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>267</v>
@@ -5726,9 +5742,9 @@
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>127</v>
@@ -5737,10 +5753,10 @@
         <v>1</v>
       </c>
       <c r="D93" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>11</v>
@@ -5757,9 +5773,9 @@
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>127</v>
@@ -5768,17 +5784,17 @@
         <v>1</v>
       </c>
       <c r="D94" s="3">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="I94" s="8" t="s">
         <v>267</v>
@@ -5788,9 +5804,9 @@
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>127</v>
@@ -5799,17 +5815,17 @@
         <v>1</v>
       </c>
       <c r="D95" s="3">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>193</v>
+        <v>425</v>
       </c>
       <c r="I95" s="8" t="s">
         <v>267</v>
@@ -5819,9 +5835,9 @@
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="35.700000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>127</v>
@@ -5830,29 +5846,37 @@
         <v>1</v>
       </c>
       <c r="D96" s="3">
-        <v>4.7</v>
+        <v>7.1</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G96" s="1"/>
-      <c r="H96" s="1" t="s">
-        <v>438</v>
+      <c r="H96" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J96" s="9"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-    </row>
-    <row r="97" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="26.1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>127</v>
@@ -5861,37 +5885,33 @@
         <v>1</v>
       </c>
       <c r="D97" s="3">
-        <v>7.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="G97" s="1"/>
-      <c r="H97" s="2" t="s">
-        <v>133</v>
+      <c r="H97" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="J97" s="9" t="s">
-        <v>269</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="J97" s="9"/>
       <c r="K97" s="6" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="M97" s="6" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="M97" s="6"/>
+    </row>
+    <row r="98" spans="1:13" ht="26.1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>127</v>
@@ -5900,33 +5920,33 @@
         <v>1</v>
       </c>
       <c r="D98" s="3">
-        <v>16.100000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="I98" s="8" t="s">
         <v>267</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="6" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="M98" s="6"/>
     </row>
-    <row r="99" spans="1:13" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>127</v>
@@ -5935,33 +5955,33 @@
         <v>1</v>
       </c>
       <c r="D99" s="3">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
-        <v>483</v>
+        <v>106</v>
       </c>
       <c r="I99" s="8" t="s">
         <v>267</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="6" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="M99" s="6"/>
     </row>
-    <row r="100" spans="1:13" ht="24.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>127</v>
@@ -5969,34 +5989,30 @@
       <c r="C100" s="1">
         <v>1</v>
       </c>
-      <c r="D100" s="3">
-        <v>16.3</v>
+      <c r="D100" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>106</v>
+        <v>484</v>
       </c>
       <c r="I100" s="8" t="s">
         <v>267</v>
       </c>
       <c r="J100" s="9"/>
-      <c r="K100" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="L100" s="6" t="s">
-        <v>417</v>
-      </c>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
       <c r="M100" s="6"/>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>127</v>
@@ -6005,29 +6021,33 @@
         <v>1</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="I101" s="8" t="s">
         <v>267</v>
       </c>
       <c r="J101" s="9"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
+      <c r="K101" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>404</v>
+      </c>
       <c r="M101" s="6"/>
     </row>
-    <row r="102" spans="1:13" ht="36.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>127</v>
@@ -6035,34 +6055,30 @@
       <c r="C102" s="1">
         <v>1</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>135</v>
+      <c r="D102" s="3">
+        <v>16.13</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="I102" s="8" t="s">
         <v>267</v>
       </c>
       <c r="J102" s="9"/>
-      <c r="K102" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="L102" s="6" t="s">
-        <v>417</v>
-      </c>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
       <c r="M102" s="6"/>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="70.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>127</v>
@@ -6071,29 +6087,37 @@
         <v>1</v>
       </c>
       <c r="D103" s="3">
-        <v>16.13</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1" t="s">
-        <v>499</v>
+        <v>22.1</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="4"/>
+      <c r="H103" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J103" s="9"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
-    </row>
-    <row r="104" spans="1:13" ht="84.75" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>127</v>
@@ -6102,76 +6126,68 @@
         <v>1</v>
       </c>
       <c r="D104" s="3">
-        <v>22.1</v>
+        <v>25</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5" t="s">
-        <v>137</v>
+        <v>445</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="J104" s="9" t="s">
         <v>269</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
       </c>
       <c r="D105" s="3">
-        <v>25</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" s="4"/>
-      <c r="H105" s="5" t="s">
-        <v>458</v>
+        <v>1</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="J105" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="K105" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="L105" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="M105" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="J105" s="9"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+    </row>
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>139</v>
@@ -6180,17 +6196,17 @@
         <v>1</v>
       </c>
       <c r="D106" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="I106" s="8" t="s">
         <v>267</v>
@@ -6200,9 +6216,9 @@
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>139</v>
@@ -6211,29 +6227,37 @@
         <v>1</v>
       </c>
       <c r="D107" s="3">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G107" s="1"/>
-      <c r="H107" s="1" t="s">
-        <v>501</v>
+      <c r="H107" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J107" s="9"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>139</v>
@@ -6242,10 +6266,10 @@
         <v>1</v>
       </c>
       <c r="D108" s="3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>11</v>
@@ -6261,18 +6285,18 @@
         <v>269</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>139</v>
@@ -6281,17 +6305,17 @@
         <v>1</v>
       </c>
       <c r="D109" s="3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="2" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="I109" s="8" t="s">
         <v>268</v>
@@ -6300,18 +6324,18 @@
         <v>269</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="26.1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>139</v>
@@ -6320,37 +6344,35 @@
         <v>1</v>
       </c>
       <c r="D110" s="3">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="2" t="s">
-        <v>193</v>
+        <v>425</v>
       </c>
       <c r="I110" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J110" s="9" t="s">
-        <v>269</v>
-      </c>
+      <c r="J110" s="9"/>
       <c r="K110" s="6" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="M110" s="6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>139</v>
@@ -6359,35 +6381,37 @@
         <v>1</v>
       </c>
       <c r="D111" s="3">
-        <v>3.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="2" t="s">
-        <v>438</v>
+        <v>106</v>
       </c>
       <c r="I111" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J111" s="9"/>
+      <c r="J111" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="K111" s="6" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>139</v>
@@ -6396,10 +6420,10 @@
         <v>1</v>
       </c>
       <c r="D112" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>11</v>
@@ -6415,18 +6439,18 @@
         <v>269</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>139</v>
@@ -6435,37 +6459,35 @@
         <v>1</v>
       </c>
       <c r="D113" s="3">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="2" t="s">
-        <v>106</v>
+        <v>489</v>
       </c>
       <c r="I113" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J113" s="9" t="s">
-        <v>269</v>
-      </c>
+      <c r="J113" s="9"/>
       <c r="K113" s="6" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>139</v>
@@ -6473,36 +6495,36 @@
       <c r="C114" s="1">
         <v>1</v>
       </c>
-      <c r="D114" s="3">
-        <v>5.3</v>
+      <c r="D114" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="I114" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I114" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="J114" s="9"/>
-      <c r="K114" s="6" t="s">
-        <v>376</v>
+      <c r="J114" s="1"/>
+      <c r="K114" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>139</v>
@@ -6511,35 +6533,29 @@
         <v>1</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G115" s="1"/>
-      <c r="H115" s="2" t="s">
-        <v>151</v>
+      <c r="H115" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J115" s="1"/>
-      <c r="K115" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="L115" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="M115" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>139</v>
@@ -6548,17 +6564,17 @@
         <v>1</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>267</v>
@@ -6568,9 +6584,9 @@
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>139</v>
@@ -6579,17 +6595,17 @@
         <v>1</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I117" s="7" t="s">
         <v>267</v>
@@ -6599,9 +6615,9 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>139</v>
@@ -6610,17 +6626,17 @@
         <v>1</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>267</v>
@@ -6630,9 +6646,9 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>139</v>
@@ -6640,30 +6656,38 @@
       <c r="C119" s="1">
         <v>1</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>161</v>
+      <c r="D119" s="3">
+        <v>11</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="G119" s="1"/>
-      <c r="H119" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-    </row>
-    <row r="120" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H119" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="L119" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="M119" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>139</v>
@@ -6672,37 +6696,29 @@
         <v>1</v>
       </c>
       <c r="D120" s="3">
-        <v>11</v>
+        <v>15.1</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G120" s="1"/>
-      <c r="H120" s="2" t="s">
-        <v>503</v>
+      <c r="H120" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="J120" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="K120" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="L120" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="M120" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="J120" s="9"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+    </row>
+    <row r="121" spans="1:13" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>139</v>
@@ -6711,29 +6727,37 @@
         <v>1</v>
       </c>
       <c r="D121" s="3">
-        <v>15.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G121" s="1"/>
-      <c r="H121" s="1" t="s">
-        <v>504</v>
+      <c r="H121" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J121" s="9"/>
-      <c r="K121" s="6"/>
-      <c r="L121" s="6"/>
-      <c r="M121" s="6"/>
-    </row>
-    <row r="122" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>139</v>
@@ -6742,37 +6766,31 @@
         <v>1</v>
       </c>
       <c r="D122" s="3">
-        <v>17.100000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G122" s="1"/>
-      <c r="H122" s="2" t="s">
-        <v>505</v>
+      <c r="H122" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="J122" s="9" t="s">
-        <v>269</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="J122" s="9"/>
       <c r="K122" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="L122" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="M122" s="6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+    </row>
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>139</v>
@@ -6781,31 +6799,29 @@
         <v>1</v>
       </c>
       <c r="D123" s="3">
-        <v>17.3</v>
+        <v>17.7</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="I123" s="8" t="s">
         <v>267</v>
       </c>
       <c r="J123" s="9"/>
-      <c r="K123" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="K123" s="6"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="51.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>139</v>
@@ -6814,29 +6830,37 @@
         <v>1</v>
       </c>
       <c r="D124" s="3">
-        <v>17.7</v>
+        <v>19</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G124" s="1"/>
-      <c r="H124" s="1" t="s">
-        <v>507</v>
+      <c r="H124" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J124" s="9"/>
-      <c r="K124" s="6"/>
-      <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
-    </row>
-    <row r="125" spans="1:13" ht="64.5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>139</v>
@@ -6845,37 +6869,29 @@
         <v>1</v>
       </c>
       <c r="D125" s="3">
-        <v>19</v>
+        <v>23.1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G125" s="1"/>
-      <c r="H125" s="2" t="s">
-        <v>508</v>
+      <c r="H125" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="J125" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="K125" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="L125" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="M125" s="6" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="J125" s="9"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+    </row>
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>139</v>
@@ -6883,18 +6899,18 @@
       <c r="C126" s="1">
         <v>1</v>
       </c>
-      <c r="D126" s="3">
-        <v>23.1</v>
+      <c r="D126" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I126" s="8" t="s">
         <v>267</v>
@@ -6904,9 +6920,9 @@
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>139</v>
@@ -6915,17 +6931,17 @@
         <v>1</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
       <c r="I127" s="8" t="s">
         <v>267</v>
@@ -6935,9 +6951,9 @@
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>139</v>
@@ -6945,18 +6961,18 @@
       <c r="C128" s="1">
         <v>1</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>173</v>
+      <c r="D128" s="3">
+        <v>23.7</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="I128" s="8" t="s">
         <v>267</v>
@@ -6966,9 +6982,9 @@
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>139</v>
@@ -6976,18 +6992,18 @@
       <c r="C129" s="1">
         <v>1</v>
       </c>
-      <c r="D129" s="3">
-        <v>23.7</v>
+      <c r="D129" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="I129" s="8" t="s">
         <v>267</v>
@@ -6997,9 +7013,9 @@
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>139</v>
@@ -7008,29 +7024,29 @@
         <v>1</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="I130" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J130" s="9"/>
-      <c r="K130" s="6"/>
-      <c r="L130" s="6"/>
-      <c r="M130" s="6"/>
-    </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>139</v>
@@ -7038,61 +7054,61 @@
       <c r="C131" s="1">
         <v>1</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>178</v>
+      <c r="D131" s="3">
+        <v>24.3</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="I131" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
-    </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="J131" s="9"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+    </row>
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
       </c>
-      <c r="D132" s="3">
-        <v>24.3</v>
+      <c r="D132" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="I132" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J132" s="9"/>
-      <c r="K132" s="6"/>
-      <c r="L132" s="6"/>
-      <c r="M132" s="6"/>
-    </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>181</v>
@@ -7101,17 +7117,17 @@
         <v>1</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I133" s="7" t="s">
         <v>267</v>
@@ -7121,9 +7137,9 @@
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>181</v>
@@ -7132,17 +7148,17 @@
         <v>1</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I134" s="7" t="s">
         <v>267</v>
@@ -7152,28 +7168,28 @@
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="C135" s="1">
-        <v>1</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="D135" s="3">
+        <v>1</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1" t="s">
-        <v>187</v>
+        <v>498</v>
       </c>
       <c r="I135" s="7" t="s">
         <v>267</v>
@@ -7183,9 +7199,9 @@
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>139</v>
@@ -7194,29 +7210,29 @@
         <v>2</v>
       </c>
       <c r="D136" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="I136" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-    </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="J136" s="9"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+    </row>
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>139</v>
@@ -7225,17 +7241,17 @@
         <v>2</v>
       </c>
       <c r="D137" s="3">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="I137" s="8" t="s">
         <v>267</v>
@@ -7245,9 +7261,9 @@
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>139</v>
@@ -7256,17 +7272,17 @@
         <v>2</v>
       </c>
       <c r="D138" s="3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="I138" s="8" t="s">
         <v>267</v>
@@ -7276,9 +7292,9 @@
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>139</v>
@@ -7286,30 +7302,30 @@
       <c r="C139" s="1">
         <v>2</v>
       </c>
-      <c r="D139" s="3">
-        <v>3.2</v>
+      <c r="D139" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="I139" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J139" s="9"/>
-      <c r="K139" s="6"/>
-      <c r="L139" s="6"/>
-      <c r="M139" s="6"/>
-    </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>139</v>
@@ -7317,30 +7333,30 @@
       <c r="C140" s="1">
         <v>2</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>191</v>
+      <c r="D140" s="3">
+        <v>3.7</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I140" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-    </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="J140" s="9"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+    </row>
+    <row r="141" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>139</v>
@@ -7349,17 +7365,19 @@
         <v>2</v>
       </c>
       <c r="D141" s="3">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G141" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H141" s="1" t="s">
-        <v>438</v>
+        <v>197</v>
       </c>
       <c r="I141" s="8" t="s">
         <v>267</v>
@@ -7369,9 +7387,9 @@
       <c r="L141" s="6"/>
       <c r="M141" s="6"/>
     </row>
-    <row r="142" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>139</v>
@@ -7380,19 +7398,17 @@
         <v>2</v>
       </c>
       <c r="D142" s="3">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G142" s="1"/>
       <c r="H142" s="1" t="s">
-        <v>197</v>
+        <v>502</v>
       </c>
       <c r="I142" s="8" t="s">
         <v>267</v>
@@ -7402,9 +7418,9 @@
       <c r="L142" s="6"/>
       <c r="M142" s="6"/>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>139</v>
@@ -7413,17 +7429,17 @@
         <v>2</v>
       </c>
       <c r="D143" s="3">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="I143" s="8" t="s">
         <v>267</v>
@@ -7433,9 +7449,9 @@
       <c r="L143" s="6"/>
       <c r="M143" s="6"/>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>139</v>
@@ -7444,17 +7460,17 @@
         <v>2</v>
       </c>
       <c r="D144" s="3">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="I144" s="8" t="s">
         <v>267</v>
@@ -7464,9 +7480,9 @@
       <c r="L144" s="6"/>
       <c r="M144" s="6"/>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>139</v>
@@ -7475,17 +7491,17 @@
         <v>2</v>
       </c>
       <c r="D145" s="3">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1" t="s">
-        <v>517</v>
+        <v>202</v>
       </c>
       <c r="I145" s="8" t="s">
         <v>267</v>
@@ -7495,9 +7511,9 @@
       <c r="L145" s="6"/>
       <c r="M145" s="6"/>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>139</v>
@@ -7506,17 +7522,17 @@
         <v>2</v>
       </c>
       <c r="D146" s="3">
-        <v>6.7</v>
+        <v>11</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1" t="s">
-        <v>202</v>
+        <v>490</v>
       </c>
       <c r="I146" s="8" t="s">
         <v>267</v>
@@ -7526,9 +7542,9 @@
       <c r="L146" s="6"/>
       <c r="M146" s="6"/>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>139</v>
@@ -7537,17 +7553,17 @@
         <v>2</v>
       </c>
       <c r="D147" s="3">
-        <v>11</v>
+        <v>15.1</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="I147" s="8" t="s">
         <v>267</v>
@@ -7557,9 +7573,9 @@
       <c r="L147" s="6"/>
       <c r="M147" s="6"/>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>139</v>
@@ -7568,17 +7584,17 @@
         <v>2</v>
       </c>
       <c r="D148" s="3">
-        <v>15.1</v>
+        <v>23.1</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I148" s="8" t="s">
         <v>267</v>
@@ -7588,9 +7604,9 @@
       <c r="L148" s="6"/>
       <c r="M148" s="6"/>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>139</v>
@@ -7598,18 +7614,18 @@
       <c r="C149" s="1">
         <v>2</v>
       </c>
-      <c r="D149" s="3">
-        <v>23.1</v>
+      <c r="D149" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I149" s="8" t="s">
         <v>267</v>
@@ -7619,9 +7635,9 @@
       <c r="L149" s="6"/>
       <c r="M149" s="6"/>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>139</v>
@@ -7630,17 +7646,17 @@
         <v>2</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
       <c r="I150" s="8" t="s">
         <v>267</v>
@@ -7650,9 +7666,9 @@
       <c r="L150" s="6"/>
       <c r="M150" s="6"/>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>139</v>
@@ -7660,18 +7676,18 @@
       <c r="C151" s="1">
         <v>2</v>
       </c>
-      <c r="D151" s="3" t="s">
-        <v>173</v>
+      <c r="D151" s="3">
+        <v>23.7</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="I151" s="8" t="s">
         <v>267</v>
@@ -7681,9 +7697,9 @@
       <c r="L151" s="6"/>
       <c r="M151" s="6"/>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>139</v>
@@ -7691,18 +7707,18 @@
       <c r="C152" s="1">
         <v>2</v>
       </c>
-      <c r="D152" s="3">
-        <v>23.7</v>
+      <c r="D152" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="I152" s="8" t="s">
         <v>267</v>
@@ -7712,9 +7728,9 @@
       <c r="L152" s="6"/>
       <c r="M152" s="6"/>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>139</v>
@@ -7722,18 +7738,18 @@
       <c r="C153" s="1">
         <v>2</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>176</v>
+      <c r="D153" s="3">
+        <v>24.1</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I153" s="8" t="s">
         <v>267</v>
@@ -7743,9 +7759,9 @@
       <c r="L153" s="6"/>
       <c r="M153" s="6"/>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>139</v>
@@ -7754,17 +7770,17 @@
         <v>2</v>
       </c>
       <c r="D154" s="3">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I154" s="8" t="s">
         <v>267</v>
@@ -7774,9 +7790,9 @@
       <c r="L154" s="6"/>
       <c r="M154" s="6"/>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>139</v>
@@ -7785,17 +7801,17 @@
         <v>2</v>
       </c>
       <c r="D155" s="3">
-        <v>24.3</v>
+        <v>29</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I155" s="8" t="s">
         <v>267</v>
@@ -7805,28 +7821,28 @@
       <c r="L155" s="6"/>
       <c r="M155" s="6"/>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C156" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D156" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="I156" s="8" t="s">
         <v>267</v>
@@ -7836,9 +7852,9 @@
       <c r="L156" s="6"/>
       <c r="M156" s="6"/>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>139</v>
@@ -7847,17 +7863,17 @@
         <v>3</v>
       </c>
       <c r="D157" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="I157" s="8" t="s">
         <v>267</v>
@@ -7867,9 +7883,9 @@
       <c r="L157" s="6"/>
       <c r="M157" s="6"/>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>139</v>
@@ -7878,29 +7894,37 @@
         <v>3</v>
       </c>
       <c r="D158" s="3">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G158" s="1"/>
-      <c r="H158" s="1" t="s">
-        <v>520</v>
+      <c r="H158" s="2" t="s">
+        <v>508</v>
       </c>
       <c r="I158" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J158" s="9"/>
-      <c r="K158" s="6"/>
-      <c r="L158" s="6"/>
-      <c r="M158" s="6"/>
-    </row>
-    <row r="159" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="J158" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K158" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="L158" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="M158" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>139</v>
@@ -7909,17 +7933,17 @@
         <v>3</v>
       </c>
       <c r="D159" s="3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="2" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="I159" s="8" t="s">
         <v>268</v>
@@ -7928,18 +7952,18 @@
         <v>269</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="M159" s="6" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>139</v>
@@ -7948,17 +7972,17 @@
         <v>3</v>
       </c>
       <c r="D160" s="3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="2" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="I160" s="8" t="s">
         <v>268</v>
@@ -7967,18 +7991,18 @@
         <v>269</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="M160" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="26.1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>139</v>
@@ -7987,37 +8011,35 @@
         <v>3</v>
       </c>
       <c r="D161" s="3">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="2" t="s">
-        <v>523</v>
+        <v>425</v>
       </c>
       <c r="I161" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J161" s="9" t="s">
-        <v>269</v>
-      </c>
+      <c r="J161" s="9"/>
       <c r="K161" s="6" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="L161" s="6" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="M161" s="6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="51.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>139</v>
@@ -8026,35 +8048,39 @@
         <v>3</v>
       </c>
       <c r="D162" s="3">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F162" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G162" s="1"/>
       <c r="H162" s="2" t="s">
-        <v>438</v>
+        <v>511</v>
       </c>
       <c r="I162" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J162" s="9"/>
+      <c r="J162" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="K162" s="6" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L162" s="6" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="M162" s="6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>139</v>
@@ -8063,39 +8089,29 @@
         <v>3</v>
       </c>
       <c r="D163" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>524</v>
+        <v>74</v>
+      </c>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="J163" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="K163" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="L163" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="M163" s="6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="J163" s="9"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+    </row>
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>139</v>
@@ -8104,17 +8120,17 @@
         <v>3</v>
       </c>
       <c r="D164" s="3">
-        <v>11</v>
+        <v>15.1</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="I164" s="8" t="s">
         <v>267</v>
@@ -8124,9 +8140,9 @@
       <c r="L164" s="6"/>
       <c r="M164" s="6"/>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>139</v>
@@ -8135,17 +8151,17 @@
         <v>3</v>
       </c>
       <c r="D165" s="3">
-        <v>15.1</v>
+        <v>23.1</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I165" s="8" t="s">
         <v>267</v>
@@ -8155,9 +8171,9 @@
       <c r="L165" s="6"/>
       <c r="M165" s="6"/>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>139</v>
@@ -8165,18 +8181,18 @@
       <c r="C166" s="1">
         <v>3</v>
       </c>
-      <c r="D166" s="3">
-        <v>23.1</v>
+      <c r="D166" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I166" s="8" t="s">
         <v>267</v>
@@ -8186,9 +8202,9 @@
       <c r="L166" s="6"/>
       <c r="M166" s="6"/>
     </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>139</v>
@@ -8197,17 +8213,17 @@
         <v>3</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
       <c r="I167" s="8" t="s">
         <v>267</v>
@@ -8217,9 +8233,9 @@
       <c r="L167" s="6"/>
       <c r="M167" s="6"/>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>139</v>
@@ -8227,18 +8243,18 @@
       <c r="C168" s="1">
         <v>3</v>
       </c>
-      <c r="D168" s="3" t="s">
-        <v>173</v>
+      <c r="D168" s="3">
+        <v>23.7</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="I168" s="8" t="s">
         <v>267</v>
@@ -8248,9 +8264,9 @@
       <c r="L168" s="6"/>
       <c r="M168" s="6"/>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>139</v>
@@ -8258,18 +8274,18 @@
       <c r="C169" s="1">
         <v>3</v>
       </c>
-      <c r="D169" s="3">
-        <v>23.7</v>
+      <c r="D169" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="I169" s="8" t="s">
         <v>267</v>
@@ -8279,9 +8295,9 @@
       <c r="L169" s="6"/>
       <c r="M169" s="6"/>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>139</v>
@@ -8289,18 +8305,18 @@
       <c r="C170" s="1">
         <v>3</v>
       </c>
-      <c r="D170" s="3" t="s">
-        <v>176</v>
+      <c r="D170" s="3">
+        <v>24.1</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I170" s="8" t="s">
         <v>267</v>
@@ -8310,9 +8326,9 @@
       <c r="L170" s="6"/>
       <c r="M170" s="6"/>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>139</v>
@@ -8321,17 +8337,17 @@
         <v>3</v>
       </c>
       <c r="D171" s="3">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I171" s="8" t="s">
         <v>267</v>
@@ -8341,9 +8357,9 @@
       <c r="L171" s="6"/>
       <c r="M171" s="6"/>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>139</v>
@@ -8352,17 +8368,17 @@
         <v>3</v>
       </c>
       <c r="D172" s="3">
-        <v>24.3</v>
+        <v>29</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I172" s="8" t="s">
         <v>267</v>
@@ -8372,28 +8388,28 @@
       <c r="L172" s="6"/>
       <c r="M172" s="6"/>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C173" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D173" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1" t="s">
-        <v>518</v>
+        <v>229</v>
       </c>
       <c r="I173" s="8" t="s">
         <v>267</v>
@@ -8403,9 +8419,9 @@
       <c r="L173" s="6"/>
       <c r="M173" s="6"/>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>139</v>
@@ -8414,29 +8430,31 @@
         <v>4</v>
       </c>
       <c r="D174" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1" t="s">
-        <v>229</v>
+        <v>513</v>
       </c>
       <c r="I174" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="J174" s="9"/>
+      <c r="J174" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
       <c r="M174" s="6"/>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>139</v>
@@ -8445,31 +8463,35 @@
         <v>4</v>
       </c>
       <c r="D175" s="3">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G175" s="1"/>
-      <c r="H175" s="1" t="s">
-        <v>526</v>
+      <c r="H175" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J175" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="K175" s="6"/>
-      <c r="L175" s="6"/>
-      <c r="M175" s="6"/>
-    </row>
-    <row r="176" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="J175" s="9"/>
+      <c r="K175" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="L175" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="M175" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="35.700000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>139</v>
@@ -8478,35 +8500,37 @@
         <v>4</v>
       </c>
       <c r="D176" s="3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="2" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="I176" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J176" s="9"/>
+      <c r="J176" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="K176" s="6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L176" s="6" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="M176" s="6" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>139</v>
@@ -8515,17 +8539,17 @@
         <v>4</v>
       </c>
       <c r="D177" s="3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="2" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="I177" s="8" t="s">
         <v>268</v>
@@ -8534,18 +8558,18 @@
         <v>269</v>
       </c>
       <c r="K177" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="L177" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="M177" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="26.1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>139</v>
@@ -8554,37 +8578,35 @@
         <v>4</v>
       </c>
       <c r="D178" s="3">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="2" t="s">
-        <v>529</v>
+        <v>425</v>
       </c>
       <c r="I178" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J178" s="9" t="s">
-        <v>269</v>
-      </c>
+      <c r="J178" s="9"/>
       <c r="K178" s="6" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="L178" s="6" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="M178" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>139</v>
@@ -8593,35 +8615,37 @@
         <v>4</v>
       </c>
       <c r="D179" s="3">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="2" t="s">
-        <v>438</v>
+        <v>236</v>
       </c>
       <c r="I179" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J179" s="9"/>
+      <c r="J179" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="K179" s="6" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L179" s="6" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="M179" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>139</v>
@@ -8630,37 +8654,29 @@
         <v>4</v>
       </c>
       <c r="D180" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G180" s="1"/>
-      <c r="H180" s="2" t="s">
-        <v>236</v>
+      <c r="H180" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="I180" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="J180" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="K180" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="L180" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="M180" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="J180" s="9"/>
+      <c r="K180" s="6"/>
+      <c r="L180" s="6"/>
+      <c r="M180" s="6"/>
+    </row>
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>139</v>
@@ -8669,17 +8685,17 @@
         <v>4</v>
       </c>
       <c r="D181" s="3">
-        <v>11</v>
+        <v>15.1</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="I181" s="8" t="s">
         <v>267</v>
@@ -8689,9 +8705,9 @@
       <c r="L181" s="6"/>
       <c r="M181" s="6"/>
     </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>139</v>
@@ -8700,17 +8716,17 @@
         <v>4</v>
       </c>
       <c r="D182" s="3">
-        <v>15.1</v>
+        <v>23.1</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="1" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I182" s="8" t="s">
         <v>267</v>
@@ -8720,9 +8736,9 @@
       <c r="L182" s="6"/>
       <c r="M182" s="6"/>
     </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>139</v>
@@ -8730,18 +8746,18 @@
       <c r="C183" s="1">
         <v>4</v>
       </c>
-      <c r="D183" s="3">
-        <v>23.1</v>
+      <c r="D183" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I183" s="8" t="s">
         <v>267</v>
@@ -8751,9 +8767,9 @@
       <c r="L183" s="6"/>
       <c r="M183" s="6"/>
     </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>139</v>
@@ -8762,17 +8778,17 @@
         <v>4</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
       <c r="I184" s="8" t="s">
         <v>267</v>
@@ -8782,9 +8798,9 @@
       <c r="L184" s="6"/>
       <c r="M184" s="6"/>
     </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>139</v>
@@ -8792,18 +8808,18 @@
       <c r="C185" s="1">
         <v>4</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>173</v>
+      <c r="D185" s="3">
+        <v>23.7</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="I185" s="8" t="s">
         <v>267</v>
@@ -8813,9 +8829,9 @@
       <c r="L185" s="6"/>
       <c r="M185" s="6"/>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>139</v>
@@ -8823,18 +8839,18 @@
       <c r="C186" s="1">
         <v>4</v>
       </c>
-      <c r="D186" s="3">
-        <v>23.7</v>
+      <c r="D186" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="I186" s="8" t="s">
         <v>267</v>
@@ -8844,9 +8860,9 @@
       <c r="L186" s="6"/>
       <c r="M186" s="6"/>
     </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>139</v>
@@ -8854,18 +8870,18 @@
       <c r="C187" s="1">
         <v>4</v>
       </c>
-      <c r="D187" s="3" t="s">
-        <v>176</v>
+      <c r="D187" s="3">
+        <v>24.1</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I187" s="8" t="s">
         <v>267</v>
@@ -8875,9 +8891,9 @@
       <c r="L187" s="6"/>
       <c r="M187" s="6"/>
     </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>139</v>
@@ -8886,17 +8902,17 @@
         <v>4</v>
       </c>
       <c r="D188" s="3">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="I188" s="8" t="s">
         <v>267</v>
@@ -8906,9 +8922,9 @@
       <c r="L188" s="6"/>
       <c r="M188" s="6"/>
     </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>139</v>
@@ -8917,17 +8933,17 @@
         <v>4</v>
       </c>
       <c r="D189" s="3">
-        <v>24.3</v>
+        <v>29</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I189" s="8" t="s">
         <v>267</v>
@@ -8937,28 +8953,28 @@
       <c r="L189" s="6"/>
       <c r="M189" s="6"/>
     </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
       <c r="C190" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D190" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>246</v>
+        <v>53</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1" t="s">
-        <v>518</v>
+        <v>183</v>
       </c>
       <c r="I190" s="8" t="s">
         <v>267</v>
@@ -8968,9 +8984,9 @@
       <c r="L190" s="6"/>
       <c r="M190" s="6"/>
     </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>247</v>
@@ -8978,30 +8994,38 @@
       <c r="C191" s="1">
         <v>1</v>
       </c>
-      <c r="D191" s="3">
-        <v>1</v>
+      <c r="D191" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>53</v>
+        <v>249</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G191" s="1"/>
-      <c r="H191" s="1" t="s">
-        <v>183</v>
+      <c r="H191" s="2" t="s">
+        <v>518</v>
       </c>
       <c r="I191" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J191" s="9"/>
-      <c r="K191" s="6"/>
-      <c r="L191" s="6"/>
-      <c r="M191" s="6"/>
-    </row>
-    <row r="192" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="J191" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K191" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="L191" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="M191" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>247</v>
@@ -9010,17 +9034,17 @@
         <v>1</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="2" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="I192" s="8" t="s">
         <v>268</v>
@@ -9029,18 +9053,18 @@
         <v>269</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="L192" s="6" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="M192" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>247</v>
@@ -9049,17 +9073,17 @@
         <v>1</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="2" t="s">
-        <v>532</v>
+        <v>443</v>
       </c>
       <c r="I193" s="8" t="s">
         <v>268</v>
@@ -9068,18 +9092,18 @@
         <v>269</v>
       </c>
       <c r="K193" s="6" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="L193" s="6" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="M193" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>247</v>
@@ -9087,18 +9111,18 @@
       <c r="C194" s="1">
         <v>1</v>
       </c>
-      <c r="D194" s="3" t="s">
-        <v>252</v>
+      <c r="D194" s="3">
+        <v>4.0999999999999996</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="2" t="s">
-        <v>456</v>
+        <v>106</v>
       </c>
       <c r="I194" s="8" t="s">
         <v>268</v>
@@ -9107,18 +9131,18 @@
         <v>269</v>
       </c>
       <c r="K194" s="6" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="L194" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="M194" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>247</v>
@@ -9126,14 +9150,14 @@
       <c r="C195" s="1">
         <v>1</v>
       </c>
-      <c r="D195" s="3">
-        <v>4.0999999999999996</v>
+      <c r="D195" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="G195" s="1"/>
       <c r="H195" s="2" t="s">
@@ -9146,18 +9170,18 @@
         <v>269</v>
       </c>
       <c r="K195" s="6" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="L195" s="6" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="M195" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>247</v>
@@ -9165,18 +9189,18 @@
       <c r="C196" s="1">
         <v>1</v>
       </c>
-      <c r="D196" s="3" t="s">
-        <v>255</v>
+      <c r="D196" s="3">
+        <v>4.3</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="2" t="s">
-        <v>106</v>
+        <v>489</v>
       </c>
       <c r="I196" s="8" t="s">
         <v>268</v>
@@ -9185,18 +9209,18 @@
         <v>269</v>
       </c>
       <c r="K196" s="6" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="L196" s="6" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="M196" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>247</v>
@@ -9205,37 +9229,35 @@
         <v>1</v>
       </c>
       <c r="D197" s="3">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G197" s="1"/>
       <c r="H197" s="2" t="s">
-        <v>502</v>
+        <v>151</v>
       </c>
       <c r="I197" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J197" s="9" t="s">
-        <v>269</v>
-      </c>
+      <c r="J197" s="9"/>
       <c r="K197" s="6" t="s">
-        <v>394</v>
+        <v>529</v>
       </c>
       <c r="L197" s="6" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="M197" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>247</v>
@@ -9244,35 +9266,37 @@
         <v>1</v>
       </c>
       <c r="D198" s="3">
-        <v>4.7</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="2" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="I198" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="J198" s="9"/>
+        <v>286</v>
+      </c>
+      <c r="J198" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="K198" s="6" t="s">
-        <v>542</v>
+        <v>385</v>
       </c>
       <c r="L198" s="6" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="M198" s="6" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>247</v>
@@ -9281,73 +9305,59 @@
         <v>1</v>
       </c>
       <c r="D199" s="3">
-        <v>17.100000000000001</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G199" s="1"/>
-      <c r="H199" s="2" t="s">
+      <c r="H199" s="1" t="s">
         <v>260</v>
       </c>
       <c r="I199" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="J199" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="J199" s="9"/>
+      <c r="K199" s="6"/>
+      <c r="L199" s="6"/>
+      <c r="M199" s="6"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="E200" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="I200" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="J200" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K199" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="L199" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="M199" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C200" s="1">
-        <v>1</v>
-      </c>
-      <c r="D200" s="3">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I200" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J200" s="9"/>
-      <c r="K200" s="6"/>
-      <c r="L200" s="6"/>
-      <c r="M200" s="6"/>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K200" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="L200" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="M200" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E201" s="9" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
       <c r="H201" s="6" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="I201" s="8" t="s">
         <v>268</v>
@@ -9356,23 +9366,24 @@
         <v>269</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="L201" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="M201" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="M201" s="6" t="str">
+        <f>Table4[[#This Row],[Title ]]</f>
+        <v>Expiration date of the test kit.</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E202" s="9" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F202" s="9"/>
       <c r="G202" s="9"/>
       <c r="H202" s="6" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="I202" s="8" t="s">
         <v>268</v>
@@ -9381,24 +9392,24 @@
         <v>269</v>
       </c>
       <c r="K202" s="6" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="L202" s="6" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="M202" s="6" t="str">
         <f>Table4[[#This Row],[Title ]]</f>
-        <v>Expiration date of the test kit.</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Lot number of the test kit.</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E203" s="9" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
       <c r="H203" s="6" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="I203" s="8" t="s">
         <v>268</v>
@@ -9407,97 +9418,92 @@
         <v>269</v>
       </c>
       <c r="K203" s="6" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="L203" s="6" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="M203" s="6" t="str">
         <f>Table4[[#This Row],[Title ]]</f>
-        <v>Lot number of the test kit.</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Serial number of the test kit.</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" ht="47.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E204" s="9" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="F204" s="9"/>
       <c r="G204" s="9"/>
       <c r="H204" s="6" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="I204" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J204" s="9" t="s">
-        <v>269</v>
-      </c>
+      <c r="J204" s="9"/>
       <c r="K204" s="6" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="L204" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="M204" s="6" t="str">
-        <f>Table4[[#This Row],[Title ]]</f>
-        <v>Serial number of the test kit.</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+      <c r="M204" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E205" s="9" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F205" s="9"/>
       <c r="G205" s="9"/>
       <c r="H205" s="6" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="I205" s="8" t="s">
         <v>268</v>
       </c>
       <c r="J205" s="9"/>
       <c r="K205" s="6" t="s">
-        <v>404</v>
+        <v>531</v>
       </c>
       <c r="L205" s="6" t="s">
-        <v>540</v>
+        <v>393</v>
       </c>
       <c r="M205" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="E206" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="F206" s="9"/>
-      <c r="G206" s="9"/>
-      <c r="H206" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="I206" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="J206" s="9"/>
-      <c r="K206" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="L206" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="M206" s="6" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="9ed5a28f-e285-4793-933e-f86572ea3e88">
+      <UserInfo>
+        <DisplayName>Weitz, Andrew (NIH/NIBIB) [E]</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <LCG_x0020_Document_x0020_Workflow xmlns="4D6717E0-CDEB-44BF-A709-93EA007A7FBE">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </LCG_x0020_Document_x0020_Workflow>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9506,7 +9512,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007437C95740B27E489F4D6E839F8CF8B2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="143a829b742b703f123862b233d92dff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="9ed5a28f-e285-4793-933e-f86572ea3e88" xmlns:ns3="4D6717E0-CDEB-44BF-A709-93EA007A7FBE" xmlns:ns4="a130c0bc-081d-4a7d-8c4b-0d956631a56e" xmlns:ns5="4d6717e0-cdeb-44bf-a709-93ea007a7fbe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35372c0a9306abecb7f01b69797803a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9723,27 +9729,19 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="9ed5a28f-e285-4793-933e-f86572ea3e88">
-      <UserInfo>
-        <DisplayName>Weitz, Andrew (NIH/NIBIB) [E]</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <LCG_x0020_Document_x0020_Workflow xmlns="4D6717E0-CDEB-44BF-A709-93EA007A7FBE">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </LCG_x0020_Document_x0020_Workflow>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F1E9EE-CFA2-4828-A402-9D2D26481639}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9ed5a28f-e285-4793-933e-f86572ea3e88"/>
+    <ds:schemaRef ds:uri="4D6717E0-CDEB-44BF-A709-93EA007A7FBE"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6420E821-CCF6-4442-ACB4-DDE4A770B835}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9751,7 +9749,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76CE94C4-BFB3-484A-9445-0E2A40AF603D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9771,16 +9769,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F1E9EE-CFA2-4828-A402-9D2D26481639}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9ed5a28f-e285-4793-933e-f86572ea3e88"/>
-    <ds:schemaRef ds:uri="4D6717E0-CDEB-44BF-A709-93EA007A7FBE"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/input/images/In-Vitro At-Home Test V2 FHIR Mapping.xlsx
+++ b/input/images/In-Vitro At-Home Test V2 FHIR Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\HL7\FHIR\home-lab-report\input\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A571447A-51C3-4FD4-BC8A-47BB086890EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650996B6-128B-4D67-8F8D-6B2D17FA9975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="547">
   <si>
     <t>Index</t>
   </si>
@@ -1182,15 +1182,6 @@
     <t>Observation - Patient Question Answer.valueDateTime</t>
   </si>
   <si>
-    <t>Observation.specimen.reference(Specimen).Specimenidentifier.Identifier</t>
-  </si>
-  <si>
-    <t>Specimen-at-home-in-vitro-test.identifier</t>
-  </si>
-  <si>
-    <t>Observation.specimen.reference(Specimen).Specimen.identifier.Identifier.uri</t>
-  </si>
-  <si>
     <t>Observation.specimen.reference(Specimen).Specimen.identifier.Identifier.type</t>
   </si>
   <si>
@@ -1648,6 +1639,9 @@
     <t>Extension</t>
   </si>
   <si>
+    <t>MessageHeader.destination.endpoint</t>
+  </si>
+  <si>
     <t>MessageHeader-at-home-in-vitro-test-results.destination.endpoint</t>
   </si>
   <si>
@@ -1661,26 +1655,10 @@
 MessageHeader-at-home-in-vitro-test-results.receiver(US Core Organization).identifier.system</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MessageHeader.destination.endpoint
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>MessageHeader.destination.name</t>
-    </r>
+    <t>MessageHeader.source.endpoint</t>
+  </si>
+  <si>
+    <t>MessageHeader-at-home-in-vitro-test-results.source.endpoint</t>
   </si>
   <si>
     <t>MessageHeader.sender(Organization.identifer[CLIA].value)</t>
@@ -1702,10 +1680,19 @@
     <t>MessageHeader.sender(Organization.identifer[CLIA].system)</t>
   </si>
   <si>
-    <t>MessageHeader.source.id</t>
-  </si>
-  <si>
-    <t>MessageHeader-at-home-in-vitro-test-results.source.id</t>
+    <t>Observation.specimen.reference(Specimen).Specimenidentifier.Identifier.value</t>
+  </si>
+  <si>
+    <t>Specimen-at-home-in-vitro-test.identifier.value</t>
+  </si>
+  <si>
+    <t>Observation.specimen.reference(Specimen).Specimen.identifier.Identifier.system</t>
+  </si>
+  <si>
+    <t>Specimen-at-home-in-vitro-test.identifier.type</t>
+  </si>
+  <si>
+    <t>Specimen-at-home-in-vitro-test.identifier.system</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1821,6 +1808,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2171,9 +2159,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D9C36EF5-049B-409A-B11E-65F49120FF6A}" name="Table4" displayName="Table4" ref="A1:M205" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14">
   <autoFilter ref="A1:M205" xr:uid="{D9C36EF5-049B-409A-B11E-65F49120FF6A}">
-    <filterColumn colId="9">
+    <filterColumn colId="8">
       <filters>
-        <filter val="MS"/>
+        <filter val="0..*"/>
+        <filter val="0..1"/>
+        <filter val="0…1"/>
+        <filter val="1..1"/>
+        <filter val="1…1"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2497,7 +2489,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2578,7 +2570,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>267</v>
@@ -2617,7 +2609,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>267</v>
@@ -2656,7 +2648,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>268</v>
@@ -2687,7 +2679,7 @@
       <c r="D5" s="3">
         <v>3.2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -2695,7 +2687,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>268</v>
@@ -2704,10 +2696,10 @@
         <v>269</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>273</v>
@@ -2726,7 +2718,7 @@
       <c r="D6" s="3">
         <v>3.3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -2734,7 +2726,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>267</v>
@@ -2765,7 +2757,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>274</v>
@@ -2774,13 +2766,13 @@
         <v>269</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>275</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="15" customFormat="1" ht="35.700000000000003" x14ac:dyDescent="0.55000000000000004">
@@ -2804,7 +2796,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>268</v>
@@ -2813,7 +2805,7 @@
         <v>269</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>276</v>
@@ -2843,7 +2835,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>268</v>
@@ -2852,7 +2844,7 @@
         <v>269</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>278</v>
@@ -2891,10 +2883,10 @@
         <v>269</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>536</v>
+        <v>280</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>532</v>
+        <v>281</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>282</v>
@@ -2913,7 +2905,7 @@
       <c r="D11" s="3">
         <v>5.2</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -2930,10 +2922,10 @@
         <v>269</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>280</v>
+        <v>529</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>281</v>
+        <v>530</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>283</v>
@@ -2952,7 +2944,7 @@
       <c r="D12" s="3">
         <v>5.3</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -2960,7 +2952,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>267</v>
@@ -3000,10 +2992,10 @@
         <v>269</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>285</v>
@@ -3039,10 +3031,10 @@
         <v>269</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>285</v>
@@ -3069,7 +3061,7 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>268</v>
@@ -3078,10 +3070,10 @@
         <v>269</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>285</v>
@@ -3108,7 +3100,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>286</v>
@@ -3147,7 +3139,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>267</v>
@@ -3178,7 +3170,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>267</v>
@@ -3209,7 +3201,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>267</v>
@@ -3240,7 +3232,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>267</v>
@@ -3271,7 +3263,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>267</v>
@@ -3333,7 +3325,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>267</v>
@@ -3364,7 +3356,7 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>267</v>
@@ -3395,7 +3387,7 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>267</v>
@@ -3426,7 +3418,7 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>268</v>
@@ -3465,7 +3457,7 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>268</v>
@@ -3504,7 +3496,7 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>268</v>
@@ -3519,10 +3511,10 @@
         <v>297</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3543,7 +3535,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>268</v>
@@ -3559,7 +3551,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3772,7 +3764,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>286</v>
@@ -3811,7 +3803,7 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>286</v>
@@ -3850,7 +3842,7 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>267</v>
@@ -4197,7 +4189,7 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>268</v>
@@ -4236,7 +4228,7 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>268</v>
@@ -4277,7 +4269,7 @@
         <v>63</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>323</v>
@@ -4318,7 +4310,7 @@
         <v>63</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>323</v>
@@ -4359,7 +4351,7 @@
         <v>63</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>268</v>
@@ -4400,7 +4392,7 @@
         <v>63</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>268</v>
@@ -4409,13 +4401,13 @@
         <v>269</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
@@ -4441,7 +4433,7 @@
         <v>11</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>268</v>
@@ -4459,7 +4451,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:13" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4492,10 +4484,10 @@
         <v>333</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="39" x14ac:dyDescent="0.55000000000000004">
@@ -4521,7 +4513,7 @@
         <v>63</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I55" s="8" t="s">
         <v>286</v>
@@ -4562,7 +4554,7 @@
         <v>63</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>268</v>
@@ -4603,7 +4595,7 @@
         <v>63</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>268</v>
@@ -4644,7 +4636,7 @@
         <v>63</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>268</v>
@@ -4662,7 +4654,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="26.1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4701,7 +4693,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="39" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:13" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4738,7 +4730,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4759,7 +4751,7 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I61" s="8" t="s">
         <v>268</v>
@@ -4775,7 +4767,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4796,7 +4788,7 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="I62" s="8" t="s">
         <v>268</v>
@@ -4833,7 +4825,7 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I63" s="8" t="s">
         <v>267</v>
@@ -4864,7 +4856,7 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I64" s="8" t="s">
         <v>267</v>
@@ -4895,7 +4887,7 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I65" s="8" t="s">
         <v>267</v>
@@ -4926,7 +4918,7 @@
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>267</v>
@@ -4957,7 +4949,7 @@
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>267</v>
@@ -4988,7 +4980,7 @@
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>267</v>
@@ -5050,7 +5042,7 @@
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I70" s="8" t="s">
         <v>267</v>
@@ -5081,7 +5073,7 @@
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>267</v>
@@ -5112,7 +5104,7 @@
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>267</v>
@@ -5174,7 +5166,7 @@
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I74" s="8" t="s">
         <v>267</v>
@@ -5205,7 +5197,7 @@
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>267</v>
@@ -5236,7 +5228,7 @@
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>267</v>
@@ -5267,7 +5259,7 @@
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>267</v>
@@ -5298,7 +5290,7 @@
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>267</v>
@@ -5329,7 +5321,7 @@
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>267</v>
@@ -5360,7 +5352,7 @@
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>267</v>
@@ -5391,7 +5383,7 @@
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>267</v>
@@ -5422,7 +5414,7 @@
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>267</v>
@@ -5453,7 +5445,7 @@
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I83" s="8" t="s">
         <v>267</v>
@@ -5484,7 +5476,7 @@
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I84" s="8" t="s">
         <v>267</v>
@@ -5515,7 +5507,7 @@
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I85" s="8" t="s">
         <v>267</v>
@@ -5546,7 +5538,7 @@
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I86" s="8" t="s">
         <v>267</v>
@@ -5577,7 +5569,7 @@
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I87" s="8" t="s">
         <v>267</v>
@@ -5639,7 +5631,7 @@
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I89" s="8" t="s">
         <v>267</v>
@@ -5670,7 +5662,7 @@
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I90" s="8" t="s">
         <v>267</v>
@@ -5701,7 +5693,7 @@
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I91" s="8" t="s">
         <v>267</v>
@@ -5825,7 +5817,7 @@
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I95" s="8" t="s">
         <v>267</v>
@@ -5871,7 +5863,7 @@
         <v>346</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="26.1" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5895,17 +5887,17 @@
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I97" s="8" t="s">
         <v>267</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M97" s="6"/>
     </row>
@@ -5930,17 +5922,17 @@
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I98" s="8" t="s">
         <v>267</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="L98" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="L98" s="6" t="s">
-        <v>404</v>
       </c>
       <c r="M98" s="6"/>
     </row>
@@ -5972,10 +5964,10 @@
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M99" s="6"/>
     </row>
@@ -6000,7 +5992,7 @@
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I100" s="8" t="s">
         <v>267</v>
@@ -6031,17 +6023,17 @@
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I101" s="8" t="s">
         <v>267</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M101" s="6"/>
     </row>
@@ -6066,7 +6058,7 @@
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I102" s="8" t="s">
         <v>267</v>
@@ -6112,7 +6104,7 @@
         <v>348</v>
       </c>
       <c r="M103" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6136,7 +6128,7 @@
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I104" s="8" t="s">
         <v>286</v>
@@ -6175,7 +6167,7 @@
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I105" s="8" t="s">
         <v>267</v>
@@ -6206,7 +6198,7 @@
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I106" s="8" t="s">
         <v>267</v>
@@ -6252,7 +6244,7 @@
         <v>352</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6291,7 +6283,7 @@
         <v>354</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6330,10 +6322,10 @@
         <v>356</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="26.1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -6354,7 +6346,7 @@
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I110" s="8" t="s">
         <v>268</v>
@@ -6367,7 +6359,7 @@
         <v>358</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6406,7 +6398,7 @@
         <v>360</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6445,10 +6437,10 @@
         <v>362</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -6469,7 +6461,7 @@
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I113" s="8" t="s">
         <v>268</v>
@@ -6482,10 +6474,10 @@
         <v>364</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -6513,13 +6505,13 @@
       </c>
       <c r="J114" s="1"/>
       <c r="K114" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -6667,7 +6659,7 @@
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I119" s="8" t="s">
         <v>286</v>
@@ -6682,7 +6674,7 @@
         <v>350</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -6706,7 +6698,7 @@
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I120" s="8" t="s">
         <v>267</v>
@@ -6737,7 +6729,7 @@
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I121" s="8" t="s">
         <v>286</v>
@@ -6749,10 +6741,10 @@
         <v>366</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M121" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -6776,7 +6768,7 @@
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I122" s="8" t="s">
         <v>267</v>
@@ -6809,7 +6801,7 @@
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I123" s="8" t="s">
         <v>267</v>
@@ -6840,7 +6832,7 @@
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I124" s="8" t="s">
         <v>286</v>
@@ -6855,7 +6847,7 @@
         <v>346</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -6879,7 +6871,7 @@
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I125" s="8" t="s">
         <v>267</v>
@@ -6910,7 +6902,7 @@
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I126" s="8" t="s">
         <v>267</v>
@@ -6941,7 +6933,7 @@
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I127" s="8" t="s">
         <v>267</v>
@@ -6972,7 +6964,7 @@
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I128" s="8" t="s">
         <v>267</v>
@@ -7003,7 +6995,7 @@
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I129" s="8" t="s">
         <v>267</v>
@@ -7034,7 +7026,7 @@
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>267</v>
@@ -7065,7 +7057,7 @@
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I131" s="8" t="s">
         <v>267</v>
@@ -7189,7 +7181,7 @@
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I135" s="7" t="s">
         <v>267</v>
@@ -7220,7 +7212,7 @@
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="I136" s="8" t="s">
         <v>267</v>
@@ -7251,7 +7243,7 @@
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I137" s="8" t="s">
         <v>267</v>
@@ -7282,7 +7274,7 @@
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I138" s="8" t="s">
         <v>267</v>
@@ -7344,7 +7336,7 @@
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I140" s="8" t="s">
         <v>267</v>
@@ -7408,7 +7400,7 @@
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I142" s="8" t="s">
         <v>267</v>
@@ -7439,7 +7431,7 @@
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="I143" s="8" t="s">
         <v>267</v>
@@ -7470,7 +7462,7 @@
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I144" s="8" t="s">
         <v>267</v>
@@ -7532,7 +7524,7 @@
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I146" s="8" t="s">
         <v>267</v>
@@ -7563,7 +7555,7 @@
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I147" s="8" t="s">
         <v>267</v>
@@ -7594,7 +7586,7 @@
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I148" s="8" t="s">
         <v>267</v>
@@ -7625,7 +7617,7 @@
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I149" s="8" t="s">
         <v>267</v>
@@ -7656,7 +7648,7 @@
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I150" s="8" t="s">
         <v>267</v>
@@ -7687,7 +7679,7 @@
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I151" s="8" t="s">
         <v>267</v>
@@ -7718,7 +7710,7 @@
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I152" s="8" t="s">
         <v>267</v>
@@ -7749,7 +7741,7 @@
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I153" s="8" t="s">
         <v>267</v>
@@ -7780,7 +7772,7 @@
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I154" s="8" t="s">
         <v>267</v>
@@ -7811,7 +7803,7 @@
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I155" s="8" t="s">
         <v>267</v>
@@ -7842,7 +7834,7 @@
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I156" s="8" t="s">
         <v>267</v>
@@ -7873,7 +7865,7 @@
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I157" s="8" t="s">
         <v>267</v>
@@ -7904,7 +7896,7 @@
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I158" s="8" t="s">
         <v>268</v>
@@ -7919,7 +7911,7 @@
         <v>368</v>
       </c>
       <c r="M158" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="39" x14ac:dyDescent="0.55000000000000004">
@@ -7943,7 +7935,7 @@
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I159" s="8" t="s">
         <v>268</v>
@@ -7958,7 +7950,7 @@
         <v>370</v>
       </c>
       <c r="M159" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -7982,7 +7974,7 @@
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I160" s="8" t="s">
         <v>268</v>
@@ -7997,10 +7989,10 @@
         <v>371</v>
       </c>
       <c r="M160" s="6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" ht="26.1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -8021,7 +8013,7 @@
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I161" s="8" t="s">
         <v>268</v>
@@ -8034,7 +8026,7 @@
         <v>372</v>
       </c>
       <c r="M161" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="51.9" x14ac:dyDescent="0.55000000000000004">
@@ -8060,7 +8052,7 @@
         <v>63</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I162" s="8" t="s">
         <v>268</v>
@@ -8075,7 +8067,7 @@
         <v>374</v>
       </c>
       <c r="M162" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -8099,7 +8091,7 @@
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I163" s="8" t="s">
         <v>267</v>
@@ -8130,7 +8122,7 @@
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I164" s="8" t="s">
         <v>267</v>
@@ -8161,7 +8153,7 @@
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I165" s="8" t="s">
         <v>267</v>
@@ -8192,7 +8184,7 @@
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I166" s="8" t="s">
         <v>267</v>
@@ -8223,7 +8215,7 @@
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I167" s="8" t="s">
         <v>267</v>
@@ -8254,7 +8246,7 @@
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I168" s="8" t="s">
         <v>267</v>
@@ -8285,7 +8277,7 @@
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I169" s="8" t="s">
         <v>267</v>
@@ -8316,7 +8308,7 @@
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I170" s="8" t="s">
         <v>267</v>
@@ -8347,7 +8339,7 @@
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I171" s="8" t="s">
         <v>267</v>
@@ -8378,7 +8370,7 @@
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I172" s="8" t="s">
         <v>267</v>
@@ -8419,7 +8411,7 @@
       <c r="L173" s="6"/>
       <c r="M173" s="6"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -8440,7 +8432,7 @@
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I174" s="8" t="s">
         <v>267</v>
@@ -8452,7 +8444,7 @@
       <c r="L174" s="6"/>
       <c r="M174" s="6"/>
     </row>
-    <row r="175" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -8473,7 +8465,7 @@
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I175" s="8" t="s">
         <v>268</v>
@@ -8486,7 +8478,7 @@
         <v>368</v>
       </c>
       <c r="M175" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="35.700000000000003" x14ac:dyDescent="0.55000000000000004">
@@ -8510,7 +8502,7 @@
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I176" s="8" t="s">
         <v>268</v>
@@ -8525,7 +8517,7 @@
         <v>370</v>
       </c>
       <c r="M176" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -8549,7 +8541,7 @@
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I177" s="8" t="s">
         <v>268</v>
@@ -8564,10 +8556,10 @@
         <v>371</v>
       </c>
       <c r="M177" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" ht="26.1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -8588,7 +8580,7 @@
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I178" s="8" t="s">
         <v>268</v>
@@ -8601,7 +8593,7 @@
         <v>372</v>
       </c>
       <c r="M178" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="26.1" x14ac:dyDescent="0.55000000000000004">
@@ -8640,7 +8632,7 @@
         <v>376</v>
       </c>
       <c r="M179" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -8664,7 +8656,7 @@
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I180" s="8" t="s">
         <v>267</v>
@@ -8695,7 +8687,7 @@
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I181" s="8" t="s">
         <v>267</v>
@@ -8726,7 +8718,7 @@
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I182" s="8" t="s">
         <v>267</v>
@@ -8757,7 +8749,7 @@
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I183" s="8" t="s">
         <v>267</v>
@@ -8788,7 +8780,7 @@
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I184" s="8" t="s">
         <v>267</v>
@@ -8819,7 +8811,7 @@
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I185" s="8" t="s">
         <v>267</v>
@@ -8850,7 +8842,7 @@
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I186" s="8" t="s">
         <v>267</v>
@@ -8881,7 +8873,7 @@
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I187" s="8" t="s">
         <v>267</v>
@@ -8912,7 +8904,7 @@
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I188" s="8" t="s">
         <v>267</v>
@@ -8943,7 +8935,7 @@
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I189" s="8" t="s">
         <v>267</v>
@@ -9005,7 +8997,7 @@
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="I191" s="8" t="s">
         <v>268</v>
@@ -9014,13 +9006,13 @@
         <v>269</v>
       </c>
       <c r="K191" s="6" t="s">
-        <v>377</v>
+        <v>542</v>
       </c>
       <c r="L191" s="6" t="s">
-        <v>378</v>
+        <v>543</v>
       </c>
       <c r="M191" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="39" x14ac:dyDescent="0.55000000000000004">
@@ -9044,7 +9036,7 @@
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I192" s="8" t="s">
         <v>268</v>
@@ -9053,13 +9045,13 @@
         <v>269</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>379</v>
+        <v>544</v>
       </c>
       <c r="L192" s="6" t="s">
-        <v>378</v>
+        <v>546</v>
       </c>
       <c r="M192" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -9083,7 +9075,7 @@
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I193" s="8" t="s">
         <v>268</v>
@@ -9092,13 +9084,13 @@
         <v>269</v>
       </c>
       <c r="K193" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L193" s="6" t="s">
-        <v>378</v>
+        <v>545</v>
       </c>
       <c r="M193" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -9131,13 +9123,13 @@
         <v>269</v>
       </c>
       <c r="K194" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L194" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M194" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -9170,13 +9162,13 @@
         <v>269</v>
       </c>
       <c r="K195" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L195" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M195" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -9200,7 +9192,7 @@
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I196" s="8" t="s">
         <v>268</v>
@@ -9209,16 +9201,16 @@
         <v>269</v>
       </c>
       <c r="K196" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="L196" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="L196" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="M196" s="6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -9246,13 +9238,13 @@
       </c>
       <c r="J197" s="9"/>
       <c r="K197" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="L197" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M197" s="6" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -9285,13 +9277,13 @@
         <v>269</v>
       </c>
       <c r="K198" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L198" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M198" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -9327,12 +9319,12 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E200" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F200" s="9"/>
       <c r="G200" s="9"/>
       <c r="H200" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I200" s="8" t="s">
         <v>268</v>
@@ -9341,23 +9333,23 @@
         <v>269</v>
       </c>
       <c r="K200" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L200" s="6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="M200" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E201" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
       <c r="H201" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I201" s="8" t="s">
         <v>268</v>
@@ -9366,10 +9358,10 @@
         <v>269</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L201" s="6" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M201" s="6" t="str">
         <f>Table4[[#This Row],[Title ]]</f>
@@ -9378,12 +9370,12 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E202" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F202" s="9"/>
       <c r="G202" s="9"/>
       <c r="H202" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I202" s="8" t="s">
         <v>268</v>
@@ -9392,10 +9384,10 @@
         <v>269</v>
       </c>
       <c r="K202" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L202" s="6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="M202" s="6" t="str">
         <f>Table4[[#This Row],[Title ]]</f>
@@ -9404,12 +9396,12 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E203" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
       <c r="H203" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I203" s="8" t="s">
         <v>268</v>
@@ -9418,60 +9410,60 @@
         <v>269</v>
       </c>
       <c r="K203" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L203" s="6" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M203" s="6" t="str">
         <f>Table4[[#This Row],[Title ]]</f>
         <v>Serial number of the test kit.</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="47.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:13" ht="47.4" x14ac:dyDescent="0.55000000000000004">
       <c r="E204" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F204" s="9"/>
       <c r="G204" s="9"/>
       <c r="H204" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I204" s="8" t="s">
         <v>268</v>
       </c>
       <c r="J204" s="9"/>
       <c r="K204" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L204" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M204" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="E205" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F205" s="9"/>
       <c r="G205" s="9"/>
       <c r="H205" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I205" s="8" t="s">
         <v>268</v>
       </c>
       <c r="J205" s="9"/>
       <c r="K205" s="6" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="L205" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M205" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
